--- a/risk_analysis_prototype.xlsx
+++ b/risk_analysis_prototype.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\risk_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="943" firstSheet="6" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="943" firstSheet="6" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="РВС оригинал" sheetId="4" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="Масса исп." sheetId="1" r:id="rId19"/>
     <sheet name="Сценарии" sheetId="2" r:id="rId20"/>
     <sheet name="дБR, ppm" sheetId="8" r:id="rId21"/>
+    <sheet name="FN_FG" sheetId="25" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="258">
   <si>
     <t>Колонна Т-101</t>
   </si>
@@ -1054,6 +1055,15 @@
   <si>
     <t>Риск, ppm</t>
   </si>
+  <si>
+    <t>Частота, 1/ год</t>
+  </si>
+  <si>
+    <t>Кол-во, чел</t>
+  </si>
+  <si>
+    <t>Ущерб, млн</t>
+  </si>
 </sst>
 </file>
 
@@ -1064,7 +1074,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1234,8 +1244,17 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1290,8 +1309,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1862,11 +1887,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2261,6 +2325,24 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="18" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2309,10 +2391,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4091,742 +4169,131 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'дБR, ppm'!$I$28:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.61E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6000000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9999999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9999999999999997E-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'дБR, ppm'!$G$28:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-64DD-41B8-B548-CF5C8324ED2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12698031496062992"/>
-                  <c:y val="0.31270851560221641"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'дБR, ppm'!$I$28:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.61E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6000000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9999999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9999999999999997E-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'дБR, ppm'!$G$28:$G$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-64DD-41B8-B548-CF5C8324ED2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="681553552"/>
-        <c:axId val="681551472"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="681553552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681551472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="681551472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681553552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'дБR, ppm'!$I$28:$I$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.61E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6000000000000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9999999999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9999999999999997E-8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3E-9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'дБR, ppm'!$H$28:$H$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1257-4272-A706-28E458732102}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="681553552"/>
-        <c:axId val="681551472"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="681553552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681551472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="681551472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="681553552"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1895475</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>2515480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152877</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8220075" y="8401050"/>
+          <a:ext cx="6306430" cy="3419952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248513</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38859</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="6477000"/>
+          <a:ext cx="6182588" cy="5439534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="FN"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="904875"/>
+          <a:ext cx="5280670" cy="4151384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11603,42 +11070,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="62.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="282" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="274" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="275"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="272" t="s">
+      <c r="D1" s="285"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="282" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="277"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="270" t="s">
+      <c r="G1" s="287"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="280" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="270" t="s">
+      <c r="J1" s="280" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="270" t="s">
+      <c r="K1" s="280" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="270" t="s">
+      <c r="L1" s="280" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="270" t="s">
+      <c r="M1" s="280" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="278" t="s">
+      <c r="N1" s="288" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="270" t="s">
+      <c r="O1" s="280" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="280" t="s">
+      <c r="P1" s="290" t="s">
         <v>171</v>
       </c>
       <c r="Q1" s="160" t="s">
@@ -11673,14 +11140,14 @@
       <c r="H2" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="291"/>
     </row>
     <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -12708,9 +12175,9 @@
   </sheetPr>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12778,10 +12245,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="96" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="286">
+      <c r="A2" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="270">
         <v>7</v>
       </c>
       <c r="C2" s="254">
@@ -13379,7 +12846,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO93" sqref="AO93"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:AJ99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27587,10 +27054,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27598,16 +27065,17 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
     <col min="15" max="15" width="79.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="292" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="283"/>
+      <c r="B1" s="293"/>
       <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:15" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -27830,10 +27298,10 @@
       <c r="B11" s="89"/>
       <c r="C11" s="89"/>
       <c r="D11" s="89"/>
-      <c r="E11" s="284" t="s">
+      <c r="E11" s="294" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="285"/>
+      <c r="F11" s="295"/>
       <c r="G11" s="90">
         <f>SUM(G3:G10)</f>
         <v>10068.197119718401</v>
@@ -27890,107 +27358,39 @@
         <v>1333.1116512000001</v>
       </c>
     </row>
-    <row r="19" spans="7:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="7:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="12:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N20" s="99"/>
       <c r="O20" s="98"/>
     </row>
-    <row r="21" spans="7:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="12:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N21" s="100"/>
       <c r="O21" s="98"/>
     </row>
-    <row r="27" spans="7:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L27" s="7" t="s">
+    <row r="26" spans="12:15" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="12:15" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="273" t="s">
         <v>253</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="272" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>261</v>
-      </c>
-      <c r="I28">
-        <f>H28*POWER(10,-6)</f>
-        <v>2.61E-4</v>
-      </c>
-      <c r="L28">
-        <v>2.61E-4</v>
-      </c>
-      <c r="M28">
-        <f>4.4121*LN(L28)+36.5</f>
-        <v>9.5806356354280808E-2</v>
-      </c>
-      <c r="N28">
-        <f>POWER(10,6)*L28 + POWER(10,-14)</f>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <v>-10</v>
-      </c>
-      <c r="H29">
-        <v>26</v>
-      </c>
-      <c r="I29">
-        <f t="shared" ref="I29:I33" si="1">H29*POWER(10,-6)</f>
-        <v>2.5999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G30">
-        <v>-20</v>
-      </c>
-      <c r="H30">
-        <v>2.6</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>2.6000000000000001E-6</v>
-      </c>
-    </row>
-    <row r="31" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G31">
-        <v>-30</v>
-      </c>
-      <c r="H31">
-        <v>0.3</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999999E-7</v>
-      </c>
-    </row>
-    <row r="32" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G32">
-        <v>-40</v>
-      </c>
-      <c r="H32">
-        <v>0.03</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>2.9999999999999997E-8</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33">
-        <v>-50</v>
-      </c>
-      <c r="H33">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>3E-9</v>
+    <row r="28" spans="12:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="274">
+        <f>20*POWER(10,-6)</f>
+        <v>1.9999999999999998E-5</v>
+      </c>
+      <c r="M28" s="275">
+        <f>10*LOG10(N28/195)</f>
+        <v>-9.8900461569853686</v>
+      </c>
+      <c r="N28" s="276">
+        <f>L28*POWER(10,6)</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -27998,6 +27398,2487 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E11:F11"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E274"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="279" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="277"/>
+      <c r="D1" s="278" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="279" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="98">
+        <v>5.2799999999999996E-7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="98">
+        <v>5.2799999999999996E-7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.3239285267751288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="98">
+        <v>1.672E-6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="98">
+        <v>1.672E-6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.1958913663767872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="98">
+        <v>3.9599999999999995E-7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="98">
+        <v>3.9599999999999995E-7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1.6015176555751294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="98">
+        <v>1.0603999999999999E-5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="98">
+        <v>1.0603999999999999E-5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.5989523383767874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="98">
+        <v>6.4799999999999998E-7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="98">
+        <v>6.4799999999999998E-7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.2555024056688513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="98">
+        <v>2.052E-6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="98">
+        <v>2.052E-6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.1535949891628241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="98">
+        <v>4.8599999999999998E-7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="98">
+        <v>4.8599999999999998E-7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.5956953112688503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="98">
+        <v>1.3013999999999999E-5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="98">
+        <v>1.3013999999999999E-5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1.5954650531628245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="98">
+        <v>1.3679999999999999E-6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="98">
+        <v>1.3679999999999999E-6</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.517942516644653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="98">
+        <v>4.3320000000000002E-6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="98">
+        <v>4.3320000000000002E-6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.3894929537944032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="98">
+        <v>1.0259999999999998E-6</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="98">
+        <v>1.0259999999999998E-6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.6222816454446529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="98">
+        <v>2.7473999999999998E-5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="98">
+        <v>2.7473999999999998E-5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.6193039257944035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="98">
+        <v>5.5199999999999997E-7</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="98">
+        <v>5.5199999999999997E-7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.2334911946364278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="98">
+        <v>1.748E-6</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="98">
+        <v>1.748E-6</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.1315868319535169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="98">
+        <v>4.1399999999999997E-7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="98">
+        <v>4.1399999999999997E-7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.5934841002364279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="98">
+        <v>1.1086E-5</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="98">
+        <v>1.1086E-5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.5932568959535172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="98">
+        <v>5.7599999999999997E-7</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="98">
+        <v>5.7599999999999997E-7</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.235848184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="98">
+        <v>1.824E-6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="98">
+        <v>1.824E-6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.1347999600000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="98">
+        <v>4.32E-7</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="98">
+        <v>4.32E-7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.5937002639200004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="98">
+        <v>1.1568E-5</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="98">
+        <v>1.1568E-5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.5935639948000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="98">
+        <v>6.7199999999999998E-7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="98">
+        <v>6.7199999999999998E-7</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.3057646216739878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="98">
+        <v>2.1279999999999998E-6</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="98">
+        <v>2.1279999999999998E-6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.1916642255417875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="98">
+        <v>5.0399999999999996E-7</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="98">
+        <v>5.0399999999999996E-7</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.6009864136739878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="98">
+        <v>1.3495999999999999E-5</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="98">
+        <v>1.3495999999999999E-5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.5994647055417877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="98">
+        <v>1.2000000000000002E-6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="98">
+        <v>5.2000000000000002E-6</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.2435002639200006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="98">
+        <v>4.5600000000000006E-7</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="98">
+        <v>2.9951999999999997E-6</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.9635002639200003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="98">
+        <v>4.104E-6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="98">
+        <v>1.9968000000000001E-6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.2435002639200006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="98">
+        <v>1.8240000000000002E-5</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="98">
+        <v>1.5808000000000002E-5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1.1433639947999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="98">
+        <v>9.600000000000003E-6</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="98">
+        <v>4.5500000000000013E-6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3.31453089104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="98">
+        <v>7.6800000000000027E-6</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31" s="98">
+        <v>1.083888E-6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3.3144516910399999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="98">
+        <v>3.0720000000000011E-5</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32" s="98">
+        <v>3.4323120000000005E-6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3.3145308910399991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="98">
+        <v>9.600000000000003E-6</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33" s="98">
+        <v>1.2093380000000002E-4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.21446799759999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="98">
+        <v>3.648000000000001E-5</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34" s="98">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.2963481840000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="98">
+        <v>1.4592000000000004E-4</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="98">
+        <v>1.2095999999999998E-6</v>
+      </c>
+      <c r="E35" s="3">
+        <v>6.0163481840000008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="98">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="98">
+        <v>8.0640000000000002E-7</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4.2963481840000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="98">
+        <v>3.8000000000000003E-8</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="98">
+        <v>6.384000000000001E-6</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.1952999600000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="98">
+        <v>3.4200000000000002E-7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="98">
+        <v>2.4499999999999998E-6</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.3197502639200001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="98">
+        <v>1.5199999999999998E-6</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="98">
+        <v>5.8363199999999984E-7</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3.3197502639200001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="98">
+        <v>8.0000000000000018E-7</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="98">
+        <v>1.8481679999999999E-6</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.3197502639199987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="98">
+        <v>6.4000000000000023E-7</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="98">
+        <v>6.5118199999999996E-5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.21961399480000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="98">
+        <v>2.5600000000000009E-6</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="98">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2.249153212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="98">
+        <v>8.0000000000000018E-7</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="D43" s="98">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.1860732120000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="98">
+        <v>3.0400000000000005E-6</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="98">
+        <v>8.9999999999999996E-7</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2.1761132120000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="98">
+        <v>1.2160000000000002E-5</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="98">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="98">
+        <v>3.8000000000000003E-8</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="98">
+        <v>3.4200000000000002E-7</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="98">
+        <v>1.5199999999999998E-6</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="98">
+        <v>8.0000000000000018E-7</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="98">
+        <v>6.4000000000000023E-7</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="98">
+        <v>2.5600000000000009E-6</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="98">
+        <v>8.0000000000000018E-7</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="98">
+        <v>3.0400000000000005E-6</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="98">
+        <v>1.2160000000000002E-5</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="98">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="98">
+        <v>1.9000000000000001E-7</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="98">
+        <v>1.7099999999999999E-6</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="98">
+        <v>7.5999999999999992E-6</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="98">
+        <v>4.0000000000000007E-6</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="98">
+        <v>3.2000000000000007E-6</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="98">
+        <v>1.2800000000000003E-5</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="98">
+        <v>4.0000000000000007E-6</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="98">
+        <v>1.5200000000000004E-5</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="98">
+        <v>6.0800000000000014E-5</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="98">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="98">
+        <v>7.6000000000000006E-8</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="98">
+        <v>6.8400000000000004E-7</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="98">
+        <v>3.0399999999999997E-6</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="98">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="98">
+        <v>1.2800000000000005E-6</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="98">
+        <v>5.1200000000000018E-6</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="98">
+        <v>1.6000000000000004E-6</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="98">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="98">
+        <v>2.4320000000000004E-5</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="98">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="98">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="98">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="98">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="98">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="98">
+        <v>3.2000000000000011E-7</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="98">
+        <v>1.2800000000000005E-6</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="98">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="98">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="98">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="98">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="98">
+        <v>9.5000000000000004E-8</v>
+      </c>
+      <c r="B87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="98">
+        <v>8.5499999999999997E-7</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="98">
+        <v>3.7999999999999996E-6</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="98">
+        <v>1.2000000000000002E-7</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="98">
+        <v>9.6000000000000026E-8</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="98">
+        <v>3.840000000000001E-7</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="98">
+        <v>1.2000000000000002E-7</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="98">
+        <v>4.5600000000000006E-7</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="98">
+        <v>1.8240000000000002E-6</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="98">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="98">
+        <v>1.9000000000000001E-7</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="98">
+        <v>1.7099999999999999E-6</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="98">
+        <v>7.5999999999999992E-6</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="98">
+        <v>4.0000000000000007E-6</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="98">
+        <v>3.2000000000000007E-6</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="98">
+        <v>1.2800000000000003E-5</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="98">
+        <v>4.0000000000000007E-6</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="98">
+        <v>1.5200000000000004E-5</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="98">
+        <v>6.0800000000000014E-5</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="98">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="98">
+        <v>3.0400000000000002E-7</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="98">
+        <v>2.7360000000000001E-6</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="98">
+        <v>1.2159999999999999E-5</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="98">
+        <v>6.4000000000000014E-6</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="98">
+        <v>5.1200000000000018E-6</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="98">
+        <v>2.0480000000000007E-5</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="98">
+        <v>6.4000000000000014E-6</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="98">
+        <v>2.4320000000000004E-5</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="98">
+        <v>9.7280000000000017E-5</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="98">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="98">
+        <v>1.9000000000000001E-7</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="98">
+        <v>1.7099999999999999E-6</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="98">
+        <v>7.5999999999999992E-6</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="98">
+        <v>4.0000000000000007E-6</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="98">
+        <v>3.2000000000000007E-6</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="98">
+        <v>1.2800000000000003E-5</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="98">
+        <v>4.0000000000000007E-6</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="98">
+        <v>1.5200000000000004E-5</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="98">
+        <v>6.0800000000000014E-5</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="98">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="98">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="98">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="98">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="98">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="98">
+        <v>3.2000000000000011E-7</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="98">
+        <v>1.2800000000000005E-6</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="98">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="98">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="98">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="98">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="98">
+        <v>3.8000000000000003E-8</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="98">
+        <v>3.4200000000000002E-7</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="98">
+        <v>1.5199999999999998E-6</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="98">
+        <v>8.0000000000000018E-7</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="98">
+        <v>6.4000000000000023E-7</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="98">
+        <v>2.5600000000000009E-6</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="98">
+        <v>8.0000000000000018E-7</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="98">
+        <v>3.0400000000000005E-6</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="98">
+        <v>1.2160000000000002E-5</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="98">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="98">
+        <v>1.9000000000000001E-8</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="98">
+        <v>1.7100000000000001E-7</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="98">
+        <v>7.5999999999999992E-7</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="98">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="98">
+        <v>3.2000000000000011E-7</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="98">
+        <v>1.2800000000000005E-6</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="98">
+        <v>4.0000000000000009E-7</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="98">
+        <v>1.5200000000000003E-6</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="98">
+        <v>6.0800000000000011E-6</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="98">
+        <v>4.1200000000000004E-6</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="98">
+        <v>1.5656000000000001E-6</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="98">
+        <v>1.40904E-5</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="98">
+        <v>6.2624000000000002E-5</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="98">
+        <v>8.2399999999999997E-5</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="98">
+        <v>6.5920000000000006E-5</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="98">
+        <v>2.6368000000000002E-4</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="98">
+        <v>7.7600000000000002E-6</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="98">
+        <v>2.9488000000000005E-6</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="98">
+        <v>2.6539200000000002E-5</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="98">
+        <v>1.1795200000000001E-4</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="98">
+        <v>1.552E-4</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="98">
+        <v>1.2416000000000003E-4</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="98">
+        <v>4.9664000000000012E-4</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="98">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="98">
+        <v>9.5000000000000004E-8</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="98">
+        <v>8.5499999999999997E-7</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="98">
+        <v>3.7999999999999996E-6</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="98">
+        <v>6.0000000000000008E-7</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="98">
+        <v>4.8000000000000006E-7</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="98">
+        <v>1.9200000000000003E-6</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="98">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="98">
+        <v>3.8000000000000007E-7</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="98">
+        <v>3.4200000000000007E-6</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="98">
+        <v>1.5200000000000002E-5</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="98">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="98">
+        <v>3.2000000000000005E-5</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="98">
+        <v>1.2800000000000002E-4</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="98">
+        <v>5.0000000000000008E-7</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="98">
+        <v>1.9000000000000003E-7</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="98">
+        <v>1.7100000000000004E-6</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="98">
+        <v>7.6000000000000009E-6</v>
+      </c>
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="98">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="98">
+        <v>1.6000000000000003E-5</v>
+      </c>
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="98">
+        <v>6.4000000000000011E-5</v>
+      </c>
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="98">
+        <v>5.0000000000000008E-7</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="98">
+        <v>1.9000000000000003E-7</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="98">
+        <v>1.7100000000000004E-6</v>
+      </c>
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="98">
+        <v>7.6000000000000009E-6</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="98">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="98">
+        <v>1.6000000000000003E-5</v>
+      </c>
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="98">
+        <v>6.4000000000000011E-5</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="98">
+        <v>1.0000000000000002E-6</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="98">
+        <v>3.8000000000000007E-7</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="98">
+        <v>3.4200000000000007E-6</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="98">
+        <v>1.5200000000000002E-5</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="98">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="98">
+        <v>3.2000000000000005E-5</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="98">
+        <v>1.2800000000000002E-4</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="98">
+        <v>1.3349999999999999E-5</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="98">
+        <v>5.0730000000000004E-6</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="98">
+        <v>4.5657E-5</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="98">
+        <v>2.0291999999999999E-4</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="98">
+        <v>3.5599999999999998E-4</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="98">
+        <v>2.8480000000000004E-4</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="98">
+        <v>1.1392000000000002E-3</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="98">
+        <v>1.2045000000000001E-5</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="98">
+        <v>4.5771000000000006E-6</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="98">
+        <v>4.1193900000000006E-5</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="98">
+        <v>1.83084E-4</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="98">
+        <v>3.212E-4</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="98">
+        <v>2.5696000000000003E-4</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="98">
+        <v>1.0278400000000001E-3</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="98">
+        <v>2.6300000000000002E-6</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="98">
+        <v>9.9940000000000012E-7</v>
+      </c>
+      <c r="B220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="98">
+        <v>8.9946000000000002E-6</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="98">
+        <v>3.9975999999999998E-5</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="98">
+        <v>5.2600000000000005E-5</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="98">
+        <v>4.208000000000001E-5</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="98">
+        <v>1.6832000000000004E-4</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="98">
+        <v>2.835E-6</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="98">
+        <v>1.0773E-6</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="98">
+        <v>9.6956999999999993E-6</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="98">
+        <v>4.3092E-5</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="98">
+        <v>5.6700000000000003E-5</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="98">
+        <v>4.5360000000000013E-5</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="98">
+        <v>1.8144000000000005E-4</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="98">
+        <v>3.315E-6</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="98">
+        <v>1.2597000000000002E-6</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="98">
+        <v>1.1337300000000001E-5</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="98">
+        <v>5.0387999999999999E-5</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="98">
+        <v>6.6299999999999999E-5</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="98">
+        <v>5.3040000000000007E-5</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="98">
+        <v>2.1216000000000003E-4</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="98">
+        <v>6.63E-6</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="98">
+        <v>2.5194000000000004E-6</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="98">
+        <v>2.2674600000000001E-5</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="98">
+        <v>1.00776E-4</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="98">
+        <v>1.326E-4</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="98">
+        <v>1.0608000000000001E-4</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="98">
+        <v>4.2432000000000006E-4</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="98">
+        <v>6.8950000000000001E-6</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="98">
+        <v>2.6201000000000001E-6</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="98">
+        <v>2.35809E-5</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="98">
+        <v>1.0480399999999999E-4</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="98">
+        <v>1.3790000000000002E-4</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="98">
+        <v>1.1032000000000003E-4</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="98">
+        <v>4.4128000000000011E-4</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="98">
+        <v>7.150000000000001E-6</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="98">
+        <v>2.7170000000000004E-6</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="98">
+        <v>2.4453000000000005E-5</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="98">
+        <v>1.0868000000000001E-4</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="98">
+        <v>1.4299999999999998E-4</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="98">
+        <v>1.1440000000000002E-4</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="98">
+        <v>4.5760000000000006E-4</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="98">
+        <v>8.2849999999999995E-6</v>
+      </c>
+      <c r="B261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="98">
+        <v>3.1483000000000004E-6</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="98">
+        <v>2.8334700000000002E-5</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="98">
+        <v>1.2593199999999999E-4</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="98">
+        <v>1.6569999999999999E-4</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="98">
+        <v>1.3256000000000002E-4</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="98">
+        <v>5.3024000000000007E-4</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="98">
+        <v>7.7600000000000002E-6</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="98">
+        <v>2.9488000000000005E-6</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="98">
+        <v>2.6539200000000002E-5</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="98">
+        <v>1.1795200000000001E-4</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="98">
+        <v>1.552E-4</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="98">
+        <v>1.2416000000000003E-4</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="98">
+        <v>4.9664000000000012E-4</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/risk_analysis_prototype.xlsx
+++ b/risk_analysis_prototype.xlsx
@@ -4267,7 +4267,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="FN"/>
+        <xdr:cNvPr id="7" name="FN"/>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -27410,7 +27410,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risk_analysis_prototype.xlsx
+++ b/risk_analysis_prototype.xlsx
@@ -35,6 +35,9 @@
     <sheet name="дБR, ppm" sheetId="8" r:id="rId21"/>
     <sheet name="FN_FG" sheetId="25" r:id="rId22"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId23"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4267,9 +4270,9 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="FN"/>
+        <xdr:cNvPr id="75" name="FN"/>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4296,7 +4299,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>403870</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>150884</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="FG"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11191875" y="904875"/>
+          <a:ext cx="5280670" cy="4151384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="FFNN"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27408,9 +27468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/risk_analysis_prototype.xlsx
+++ b/risk_analysis_prototype.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\risk_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4344716-FEEC-4C6B-9853-4BDB30B3B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E04C2CD-D02E-4AFC-8293-1B5FB46CD83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="943" firstSheet="4" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3713" uniqueCount="279">
   <si>
     <t>Колонна Т-101</t>
   </si>
@@ -1127,6 +1127,9 @@
   <si>
     <t>Полное разрушение при воздействии внешнего источника горения→ образование огненного шара</t>
   </si>
+  <si>
+    <t>Частичное-шар</t>
+  </si>
 </sst>
 </file>
 
@@ -2041,7 +2044,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2448,6 +2451,53 @@
     <xf numFmtId="0" fontId="23" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="18" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2496,125 +2546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="18" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{738D9B0C-1CC5-4EBE-8606-FAB93BB8FD6D}"/>
   </cellStyles>
-  <dxfs count="191">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="186">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6862,102 +6799,102 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K3">
-    <cfRule type="cellIs" dxfId="190" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="185" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="189" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="184" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" dxfId="188" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="183" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="187" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="186" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="181" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="185" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="180" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="184" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="183" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="178" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="182" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="181" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="176" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="180" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="179" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" dxfId="178" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="cellIs" dxfId="177" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="176" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="171" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="175" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="174" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="cellIs" dxfId="173" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="172" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65">
-    <cfRule type="cellIs" dxfId="171" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7507,52 +7444,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="94" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="93" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="92" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="91" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="90" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="89" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="88" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="87" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="86" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="85" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8074,52 +8011,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="84" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="83" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="82" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="81" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="80" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="79" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="78" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="77" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="76" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="75" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8641,52 +8578,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="74" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="73" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="72" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="71" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="70" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="69" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="68" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="67" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="65" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9174,52 +9111,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="64" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="63" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="62" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="60" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="59" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9707,52 +9644,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="53" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="52" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="50" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10240,52 +10177,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="44" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="43" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="42" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="41" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="40" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="39" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10806,52 +10743,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11372,52 +11309,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11878,27 +11815,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11967,42 +11904,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="313" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="277"/>
-      <c r="C1" s="278" t="s">
+      <c r="B1" s="314"/>
+      <c r="C1" s="315" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="279"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="276" t="s">
+      <c r="D1" s="316"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="313" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="281"/>
-      <c r="H1" s="277"/>
-      <c r="I1" s="274" t="s">
+      <c r="G1" s="318"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="311" t="s">
         <v>166</v>
       </c>
-      <c r="J1" s="274" t="s">
+      <c r="J1" s="311" t="s">
         <v>167</v>
       </c>
-      <c r="K1" s="274" t="s">
+      <c r="K1" s="311" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="274" t="s">
+      <c r="L1" s="311" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="274" t="s">
+      <c r="M1" s="311" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="282" t="s">
+      <c r="N1" s="319" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="274" t="s">
+      <c r="O1" s="311" t="s">
         <v>139</v>
       </c>
-      <c r="P1" s="284" t="s">
+      <c r="P1" s="321" t="s">
         <v>171</v>
       </c>
       <c r="Q1" s="158" t="s">
@@ -12037,14 +11974,14 @@
       <c r="H2" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="285"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="312"/>
+      <c r="L2" s="312"/>
+      <c r="M2" s="312"/>
+      <c r="N2" s="320"/>
+      <c r="O2" s="312"/>
+      <c r="P2" s="322"/>
     </row>
     <row r="3" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="129" t="s">
@@ -13544,52 +13481,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="170" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="169" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="168" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="167" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="166" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="165" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="163" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="161" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13742,8 +13679,8 @@
   <dimension ref="A1:AW181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121:AW121"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14743,45 +14680,45 @@
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A7" s="298" t="s">
+      <c r="A7" s="278" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="298" t="str">
+      <c r="B7" s="278" t="str">
         <f>B2</f>
         <v>Трубопровод ЛВЖ</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="279" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="300" t="s">
+      <c r="D7" s="280" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="301">
+      <c r="E7" s="281">
         <f>E5</f>
         <v>1E-4</v>
       </c>
-      <c r="F7" s="302">
+      <c r="F7" s="282">
         <f>F2</f>
         <v>1</v>
       </c>
-      <c r="G7" s="298">
+      <c r="G7" s="278">
         <v>0.76</v>
       </c>
-      <c r="H7" s="303">
+      <c r="H7" s="283">
         <f t="shared" si="3"/>
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="I7" s="304">
+      <c r="I7" s="284">
         <f>0.15*I2</f>
         <v>1.3125</v>
       </c>
-      <c r="J7" s="305">
-        <v>0</v>
-      </c>
-      <c r="K7" s="306" t="s">
+      <c r="J7" s="285">
+        <v>0</v>
+      </c>
+      <c r="K7" s="286" t="s">
         <v>219</v>
       </c>
-      <c r="L7" s="307">
+      <c r="L7" s="287">
         <v>1</v>
       </c>
       <c r="M7" s="92" t="str">
@@ -14907,7 +14844,7 @@
         <v>8.2173195000000018E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>86</v>
       </c>
@@ -15056,7 +14993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -15107,7 +15044,7 @@
       <c r="AV9" s="48"/>
       <c r="AW9" s="48"/>
     </row>
-    <row r="10" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>86</v>
       </c>
@@ -16256,8 +16193,8 @@
       <c r="H18" s="50"/>
       <c r="I18" s="168"/>
       <c r="J18" s="48"/>
-      <c r="K18" s="331"/>
-      <c r="L18" s="332"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="300"/>
       <c r="M18" s="92"/>
       <c r="N18" s="92"/>
       <c r="O18" s="92"/>
@@ -16296,7 +16233,7 @@
       <c r="AV18" s="95"/>
       <c r="AW18" s="95"/>
     </row>
-    <row r="19" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>86</v>
       </c>
@@ -16445,7 +16382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>86</v>
       </c>
@@ -17592,8 +17529,8 @@
       <c r="H28" s="50"/>
       <c r="I28" s="168"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="331"/>
-      <c r="L28" s="333"/>
+      <c r="K28" s="299"/>
+      <c r="L28" s="301"/>
       <c r="M28" s="92"/>
       <c r="N28" s="92"/>
       <c r="O28" s="92"/>
@@ -17632,7 +17569,7 @@
       <c r="AV28" s="95"/>
       <c r="AW28" s="95"/>
     </row>
-    <row r="29" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="48" t="s">
         <v>86</v>
       </c>
@@ -17781,7 +17718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:49" s="308" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" s="288" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>86</v>
       </c>
@@ -19241,18 +19178,18 @@
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A40" s="291"/>
-      <c r="B40" s="291"/>
-      <c r="C40" s="292"/>
-      <c r="D40" s="293"/>
-      <c r="E40" s="294"/>
-      <c r="F40" s="295"/>
-      <c r="G40" s="291"/>
-      <c r="H40" s="296"/>
-      <c r="I40" s="297"/>
-      <c r="J40" s="291"/>
-      <c r="K40" s="291"/>
-      <c r="L40" s="291"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="275"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="277"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
       <c r="M40" s="92"/>
       <c r="N40" s="92"/>
       <c r="O40" s="92"/>
@@ -20602,18 +20539,18 @@
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A50" s="291"/>
-      <c r="B50" s="291"/>
-      <c r="C50" s="292"/>
-      <c r="D50" s="293"/>
-      <c r="E50" s="294"/>
-      <c r="F50" s="295"/>
-      <c r="G50" s="291"/>
-      <c r="H50" s="296"/>
-      <c r="I50" s="297"/>
-      <c r="J50" s="291"/>
-      <c r="K50" s="291"/>
-      <c r="L50" s="291"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="275"/>
+      <c r="E50" s="276"/>
+      <c r="F50" s="277"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="94"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="92"/>
       <c r="N50" s="92"/>
       <c r="O50" s="92"/>
@@ -21627,351 +21564,351 @@
       </c>
     </row>
     <row r="58" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="G58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="I58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="L58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="M58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="N58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="O58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="P58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="R58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="S58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="T58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="U58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="V58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="W58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="X58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV58" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW58" s="309" t="s">
+      <c r="A58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="F58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="J58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="K58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="L58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="M58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="N58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="O58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="P58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="R58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="S58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="T58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="U58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="V58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="W58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="X58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV58" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW58" s="222" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="309"/>
-      <c r="B59" s="309"/>
-      <c r="C59" s="309"/>
-      <c r="D59" s="309"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="309"/>
-      <c r="G59" s="309"/>
-      <c r="H59" s="309"/>
-      <c r="I59" s="309"/>
-      <c r="J59" s="309"/>
-      <c r="K59" s="309"/>
-      <c r="L59" s="309"/>
-      <c r="M59" s="309"/>
-      <c r="N59" s="309"/>
-      <c r="O59" s="309"/>
-      <c r="P59" s="309"/>
-      <c r="Q59" s="309"/>
-      <c r="R59" s="309"/>
-      <c r="S59" s="309"/>
-      <c r="T59" s="309"/>
-      <c r="U59" s="309"/>
-      <c r="V59" s="309"/>
-      <c r="W59" s="309"/>
-      <c r="X59" s="309"/>
-      <c r="Y59" s="309"/>
-      <c r="Z59" s="309"/>
-      <c r="AA59" s="309"/>
-      <c r="AB59" s="309"/>
-      <c r="AC59" s="309"/>
-      <c r="AD59" s="309"/>
-      <c r="AE59" s="309"/>
-      <c r="AF59" s="309"/>
-      <c r="AG59" s="309"/>
-      <c r="AH59" s="309"/>
-      <c r="AI59" s="309"/>
-      <c r="AJ59" s="309"/>
-      <c r="AK59" s="309"/>
-      <c r="AL59" s="309"/>
-      <c r="AM59" s="309"/>
-      <c r="AN59" s="309"/>
-      <c r="AO59" s="309"/>
-      <c r="AP59" s="309"/>
-      <c r="AQ59" s="309"/>
-      <c r="AR59" s="309"/>
-      <c r="AS59" s="309"/>
-      <c r="AT59" s="309"/>
-      <c r="AU59" s="309"/>
-      <c r="AV59" s="309"/>
-      <c r="AW59" s="309"/>
+      <c r="A59" s="222"/>
+      <c r="B59" s="222"/>
+      <c r="C59" s="222"/>
+      <c r="D59" s="222"/>
+      <c r="E59" s="222"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="222"/>
+      <c r="I59" s="222"/>
+      <c r="J59" s="222"/>
+      <c r="K59" s="222"/>
+      <c r="L59" s="222"/>
+      <c r="M59" s="222"/>
+      <c r="N59" s="222"/>
+      <c r="O59" s="222"/>
+      <c r="P59" s="222"/>
+      <c r="Q59" s="222"/>
+      <c r="R59" s="222"/>
+      <c r="S59" s="222"/>
+      <c r="T59" s="222"/>
+      <c r="U59" s="222"/>
+      <c r="V59" s="222"/>
+      <c r="W59" s="222"/>
+      <c r="X59" s="222"/>
+      <c r="Y59" s="222"/>
+      <c r="Z59" s="222"/>
+      <c r="AA59" s="222"/>
+      <c r="AB59" s="222"/>
+      <c r="AC59" s="222"/>
+      <c r="AD59" s="222"/>
+      <c r="AE59" s="222"/>
+      <c r="AF59" s="222"/>
+      <c r="AG59" s="222"/>
+      <c r="AH59" s="222"/>
+      <c r="AI59" s="222"/>
+      <c r="AJ59" s="222"/>
+      <c r="AK59" s="222"/>
+      <c r="AL59" s="222"/>
+      <c r="AM59" s="222"/>
+      <c r="AN59" s="222"/>
+      <c r="AO59" s="222"/>
+      <c r="AP59" s="222"/>
+      <c r="AQ59" s="222"/>
+      <c r="AR59" s="222"/>
+      <c r="AS59" s="222"/>
+      <c r="AT59" s="222"/>
+      <c r="AU59" s="222"/>
+      <c r="AV59" s="222"/>
+      <c r="AW59" s="222"/>
     </row>
     <row r="60" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="F60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="G60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="I60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="J60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="K60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="L60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="M60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="N60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="O60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="P60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="R60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="S60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="T60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="U60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="V60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="W60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="X60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV60" s="309" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW60" s="309" t="s">
+      <c r="A60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="D60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="F60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="G60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="I60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="K60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="L60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="N60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="O60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="P60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="R60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="S60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="T60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="U60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="V60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="W60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="X60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV60" s="222" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW60" s="222" t="s">
         <v>86</v>
       </c>
     </row>
@@ -22953,18 +22890,17 @@
       </c>
     </row>
     <row r="68" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="309"/>
-      <c r="B68" s="309"/>
-      <c r="C68" s="310"/>
-      <c r="D68" s="311"/>
-      <c r="E68" s="312"/>
-      <c r="F68" s="313"/>
-      <c r="G68" s="309"/>
-      <c r="H68" s="314"/>
-      <c r="I68" s="315"/>
-      <c r="J68" s="309"/>
-      <c r="K68" s="309"/>
-      <c r="L68" s="313"/>
+      <c r="A68" s="222"/>
+      <c r="B68" s="222"/>
+      <c r="D68" s="289"/>
+      <c r="E68" s="290"/>
+      <c r="F68" s="291"/>
+      <c r="G68" s="222"/>
+      <c r="H68" s="226"/>
+      <c r="I68" s="225"/>
+      <c r="J68" s="222"/>
+      <c r="K68" s="222"/>
+      <c r="L68" s="291"/>
       <c r="AO68" s="224"/>
       <c r="AP68" s="224"/>
       <c r="AQ68" s="225"/>
@@ -22976,18 +22912,17 @@
       <c r="AW68" s="226"/>
     </row>
     <row r="69" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="309"/>
-      <c r="B69" s="309"/>
-      <c r="C69" s="310"/>
-      <c r="D69" s="311"/>
-      <c r="E69" s="312"/>
-      <c r="F69" s="313"/>
-      <c r="G69" s="309"/>
-      <c r="H69" s="314"/>
-      <c r="I69" s="315"/>
-      <c r="J69" s="309"/>
-      <c r="K69" s="309"/>
-      <c r="L69" s="313"/>
+      <c r="A69" s="222"/>
+      <c r="B69" s="222"/>
+      <c r="D69" s="289"/>
+      <c r="E69" s="290"/>
+      <c r="F69" s="291"/>
+      <c r="G69" s="222"/>
+      <c r="H69" s="226"/>
+      <c r="I69" s="225"/>
+      <c r="J69" s="222"/>
+      <c r="K69" s="222"/>
+      <c r="L69" s="291"/>
       <c r="AO69" s="224"/>
       <c r="AP69" s="224"/>
       <c r="AQ69" s="225"/>
@@ -22999,18 +22934,17 @@
       <c r="AW69" s="226"/>
     </row>
     <row r="70" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="309"/>
-      <c r="B70" s="309"/>
-      <c r="C70" s="310"/>
-      <c r="D70" s="311"/>
-      <c r="E70" s="312"/>
-      <c r="F70" s="313"/>
-      <c r="G70" s="309"/>
-      <c r="H70" s="314"/>
-      <c r="I70" s="315"/>
-      <c r="J70" s="309"/>
-      <c r="K70" s="309"/>
-      <c r="L70" s="313"/>
+      <c r="A70" s="222"/>
+      <c r="B70" s="222"/>
+      <c r="D70" s="289"/>
+      <c r="E70" s="290"/>
+      <c r="F70" s="291"/>
+      <c r="G70" s="222"/>
+      <c r="H70" s="226"/>
+      <c r="I70" s="225"/>
+      <c r="J70" s="222"/>
+      <c r="K70" s="222"/>
+      <c r="L70" s="291"/>
       <c r="AO70" s="224"/>
       <c r="AP70" s="224"/>
       <c r="AQ70" s="225"/>
@@ -23997,18 +23931,17 @@
       </c>
     </row>
     <row r="78" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="309"/>
-      <c r="B78" s="309"/>
-      <c r="C78" s="310"/>
-      <c r="D78" s="311"/>
-      <c r="E78" s="312"/>
-      <c r="F78" s="313"/>
-      <c r="G78" s="309"/>
-      <c r="H78" s="314"/>
-      <c r="I78" s="315"/>
-      <c r="J78" s="309"/>
-      <c r="K78" s="309"/>
-      <c r="L78" s="313"/>
+      <c r="A78" s="222"/>
+      <c r="B78" s="222"/>
+      <c r="D78" s="289"/>
+      <c r="E78" s="290"/>
+      <c r="F78" s="291"/>
+      <c r="G78" s="222"/>
+      <c r="H78" s="226"/>
+      <c r="I78" s="225"/>
+      <c r="J78" s="222"/>
+      <c r="K78" s="222"/>
+      <c r="L78" s="291"/>
       <c r="AO78" s="224"/>
       <c r="AP78" s="224"/>
       <c r="AQ78" s="225"/>
@@ -24020,18 +23953,17 @@
       <c r="AW78" s="226"/>
     </row>
     <row r="79" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="309"/>
-      <c r="B79" s="309"/>
-      <c r="C79" s="310"/>
-      <c r="D79" s="311"/>
-      <c r="E79" s="312"/>
-      <c r="F79" s="313"/>
-      <c r="G79" s="309"/>
-      <c r="H79" s="314"/>
-      <c r="I79" s="315"/>
-      <c r="J79" s="309"/>
-      <c r="K79" s="309"/>
-      <c r="L79" s="313"/>
+      <c r="A79" s="222"/>
+      <c r="B79" s="222"/>
+      <c r="D79" s="289"/>
+      <c r="E79" s="290"/>
+      <c r="F79" s="291"/>
+      <c r="G79" s="222"/>
+      <c r="H79" s="226"/>
+      <c r="I79" s="225"/>
+      <c r="J79" s="222"/>
+      <c r="K79" s="222"/>
+      <c r="L79" s="291"/>
       <c r="AO79" s="224"/>
       <c r="AP79" s="224"/>
       <c r="AQ79" s="225"/>
@@ -24043,18 +23975,17 @@
       <c r="AW79" s="226"/>
     </row>
     <row r="80" spans="1:49" s="221" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="309"/>
-      <c r="B80" s="309"/>
-      <c r="C80" s="310"/>
-      <c r="D80" s="311"/>
-      <c r="E80" s="312"/>
-      <c r="F80" s="313"/>
-      <c r="G80" s="309"/>
-      <c r="H80" s="314"/>
-      <c r="I80" s="315"/>
-      <c r="J80" s="309"/>
-      <c r="K80" s="309"/>
-      <c r="L80" s="313"/>
+      <c r="A80" s="222"/>
+      <c r="B80" s="222"/>
+      <c r="D80" s="289"/>
+      <c r="E80" s="290"/>
+      <c r="F80" s="291"/>
+      <c r="G80" s="222"/>
+      <c r="H80" s="226"/>
+      <c r="I80" s="225"/>
+      <c r="J80" s="222"/>
+      <c r="K80" s="222"/>
+      <c r="L80" s="291"/>
       <c r="AO80" s="224"/>
       <c r="AP80" s="224"/>
       <c r="AQ80" s="225"/>
@@ -25040,18 +24971,17 @@
       </c>
     </row>
     <row r="88" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="316"/>
-      <c r="B88" s="316"/>
-      <c r="C88" s="317"/>
-      <c r="D88" s="318"/>
-      <c r="E88" s="319"/>
-      <c r="F88" s="320"/>
-      <c r="G88" s="316"/>
-      <c r="H88" s="321"/>
-      <c r="I88" s="322"/>
-      <c r="J88" s="316"/>
-      <c r="K88" s="316"/>
-      <c r="L88" s="316"/>
+      <c r="A88" s="199"/>
+      <c r="B88" s="199"/>
+      <c r="D88" s="292"/>
+      <c r="E88" s="293"/>
+      <c r="F88" s="294"/>
+      <c r="G88" s="199"/>
+      <c r="H88" s="203"/>
+      <c r="I88" s="202"/>
+      <c r="J88" s="199"/>
+      <c r="K88" s="199"/>
+      <c r="L88" s="199"/>
       <c r="AO88" s="201"/>
       <c r="AP88" s="201"/>
       <c r="AQ88" s="202"/>
@@ -25063,18 +24993,17 @@
       <c r="AW88" s="203"/>
     </row>
     <row r="89" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="316"/>
-      <c r="B89" s="316"/>
-      <c r="C89" s="317"/>
-      <c r="D89" s="318"/>
-      <c r="E89" s="319"/>
-      <c r="F89" s="320"/>
-      <c r="G89" s="316"/>
-      <c r="H89" s="321"/>
-      <c r="I89" s="322"/>
-      <c r="J89" s="316"/>
-      <c r="K89" s="316"/>
-      <c r="L89" s="316"/>
+      <c r="A89" s="199"/>
+      <c r="B89" s="199"/>
+      <c r="D89" s="292"/>
+      <c r="E89" s="293"/>
+      <c r="F89" s="294"/>
+      <c r="G89" s="199"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="202"/>
+      <c r="J89" s="199"/>
+      <c r="K89" s="199"/>
+      <c r="L89" s="199"/>
       <c r="AO89" s="201"/>
       <c r="AP89" s="201"/>
       <c r="AQ89" s="202"/>
@@ -25086,18 +25015,17 @@
       <c r="AW89" s="203"/>
     </row>
     <row r="90" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="316"/>
-      <c r="B90" s="316"/>
-      <c r="C90" s="317"/>
-      <c r="D90" s="318"/>
-      <c r="E90" s="319"/>
-      <c r="F90" s="320"/>
-      <c r="G90" s="316"/>
-      <c r="H90" s="321"/>
-      <c r="I90" s="322"/>
-      <c r="J90" s="316"/>
-      <c r="K90" s="316"/>
-      <c r="L90" s="316"/>
+      <c r="A90" s="199"/>
+      <c r="B90" s="199"/>
+      <c r="D90" s="292"/>
+      <c r="E90" s="293"/>
+      <c r="F90" s="294"/>
+      <c r="G90" s="199"/>
+      <c r="H90" s="203"/>
+      <c r="I90" s="202"/>
+      <c r="J90" s="199"/>
+      <c r="K90" s="199"/>
+      <c r="L90" s="199"/>
       <c r="AO90" s="201"/>
       <c r="AP90" s="201"/>
       <c r="AQ90" s="202"/>
@@ -25109,18 +25037,17 @@
       <c r="AW90" s="203"/>
     </row>
     <row r="91" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="316"/>
-      <c r="B91" s="316"/>
-      <c r="C91" s="317"/>
-      <c r="D91" s="318"/>
-      <c r="E91" s="319"/>
-      <c r="F91" s="320"/>
-      <c r="G91" s="316"/>
-      <c r="H91" s="321"/>
-      <c r="I91" s="322"/>
-      <c r="J91" s="316"/>
-      <c r="K91" s="316"/>
-      <c r="L91" s="316"/>
+      <c r="A91" s="199"/>
+      <c r="B91" s="199"/>
+      <c r="D91" s="292"/>
+      <c r="E91" s="293"/>
+      <c r="F91" s="294"/>
+      <c r="G91" s="199"/>
+      <c r="H91" s="203"/>
+      <c r="I91" s="202"/>
+      <c r="J91" s="199"/>
+      <c r="K91" s="199"/>
+      <c r="L91" s="199"/>
       <c r="AO91" s="201"/>
       <c r="AP91" s="201"/>
       <c r="AQ91" s="202"/>
@@ -26109,18 +26036,17 @@
       </c>
     </row>
     <row r="99" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="316"/>
-      <c r="B99" s="316"/>
-      <c r="C99" s="317"/>
-      <c r="D99" s="318"/>
-      <c r="E99" s="319"/>
-      <c r="F99" s="320"/>
-      <c r="G99" s="316"/>
-      <c r="H99" s="321"/>
-      <c r="I99" s="322"/>
-      <c r="J99" s="316"/>
-      <c r="K99" s="316"/>
-      <c r="L99" s="316"/>
+      <c r="A99" s="199"/>
+      <c r="B99" s="199"/>
+      <c r="D99" s="292"/>
+      <c r="E99" s="293"/>
+      <c r="F99" s="294"/>
+      <c r="G99" s="199"/>
+      <c r="H99" s="203"/>
+      <c r="I99" s="202"/>
+      <c r="J99" s="199"/>
+      <c r="K99" s="199"/>
+      <c r="L99" s="199"/>
       <c r="AO99" s="201"/>
       <c r="AP99" s="201"/>
       <c r="AQ99" s="202"/>
@@ -26132,18 +26058,17 @@
       <c r="AW99" s="203"/>
     </row>
     <row r="100" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="316"/>
-      <c r="B100" s="316"/>
-      <c r="C100" s="317"/>
-      <c r="D100" s="318"/>
-      <c r="E100" s="319"/>
-      <c r="F100" s="320"/>
-      <c r="G100" s="316"/>
-      <c r="H100" s="321"/>
-      <c r="I100" s="322"/>
-      <c r="J100" s="316"/>
-      <c r="K100" s="316"/>
-      <c r="L100" s="316"/>
+      <c r="A100" s="199"/>
+      <c r="B100" s="199"/>
+      <c r="D100" s="292"/>
+      <c r="E100" s="293"/>
+      <c r="F100" s="294"/>
+      <c r="G100" s="199"/>
+      <c r="H100" s="203"/>
+      <c r="I100" s="202"/>
+      <c r="J100" s="199"/>
+      <c r="K100" s="199"/>
+      <c r="L100" s="199"/>
       <c r="AO100" s="201"/>
       <c r="AP100" s="201"/>
       <c r="AQ100" s="202"/>
@@ -26155,18 +26080,17 @@
       <c r="AW100" s="203"/>
     </row>
     <row r="101" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="316"/>
-      <c r="B101" s="316"/>
-      <c r="C101" s="317"/>
-      <c r="D101" s="318"/>
-      <c r="E101" s="319"/>
-      <c r="F101" s="320"/>
-      <c r="G101" s="316"/>
-      <c r="H101" s="321"/>
-      <c r="I101" s="322"/>
-      <c r="J101" s="316"/>
-      <c r="K101" s="316"/>
-      <c r="L101" s="316"/>
+      <c r="A101" s="199"/>
+      <c r="B101" s="199"/>
+      <c r="D101" s="292"/>
+      <c r="E101" s="293"/>
+      <c r="F101" s="294"/>
+      <c r="G101" s="199"/>
+      <c r="H101" s="203"/>
+      <c r="I101" s="202"/>
+      <c r="J101" s="199"/>
+      <c r="K101" s="199"/>
+      <c r="L101" s="199"/>
       <c r="AO101" s="201"/>
       <c r="AP101" s="201"/>
       <c r="AQ101" s="202"/>
@@ -27153,18 +27077,17 @@
       </c>
     </row>
     <row r="109" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="316"/>
-      <c r="B109" s="316"/>
-      <c r="C109" s="317"/>
-      <c r="D109" s="318"/>
-      <c r="E109" s="319"/>
-      <c r="F109" s="320"/>
-      <c r="G109" s="316"/>
-      <c r="H109" s="321"/>
-      <c r="I109" s="322"/>
-      <c r="J109" s="316"/>
-      <c r="K109" s="316"/>
-      <c r="L109" s="316"/>
+      <c r="A109" s="199"/>
+      <c r="B109" s="199"/>
+      <c r="D109" s="292"/>
+      <c r="E109" s="293"/>
+      <c r="F109" s="294"/>
+      <c r="G109" s="199"/>
+      <c r="H109" s="203"/>
+      <c r="I109" s="202"/>
+      <c r="J109" s="199"/>
+      <c r="K109" s="199"/>
+      <c r="L109" s="199"/>
       <c r="AO109" s="201"/>
       <c r="AP109" s="201"/>
       <c r="AQ109" s="202"/>
@@ -27176,18 +27099,17 @@
       <c r="AW109" s="203"/>
     </row>
     <row r="110" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="316"/>
-      <c r="B110" s="316"/>
-      <c r="C110" s="317"/>
-      <c r="D110" s="318"/>
-      <c r="E110" s="319"/>
-      <c r="F110" s="320"/>
-      <c r="G110" s="316"/>
-      <c r="H110" s="321"/>
-      <c r="I110" s="322"/>
-      <c r="J110" s="316"/>
-      <c r="K110" s="316"/>
-      <c r="L110" s="316"/>
+      <c r="A110" s="199"/>
+      <c r="B110" s="199"/>
+      <c r="D110" s="292"/>
+      <c r="E110" s="293"/>
+      <c r="F110" s="294"/>
+      <c r="G110" s="199"/>
+      <c r="H110" s="203"/>
+      <c r="I110" s="202"/>
+      <c r="J110" s="199"/>
+      <c r="K110" s="199"/>
+      <c r="L110" s="199"/>
       <c r="AO110" s="201"/>
       <c r="AP110" s="201"/>
       <c r="AQ110" s="202"/>
@@ -27199,18 +27121,17 @@
       <c r="AW110" s="203"/>
     </row>
     <row r="111" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="316"/>
-      <c r="B111" s="316"/>
-      <c r="C111" s="317"/>
-      <c r="D111" s="318"/>
-      <c r="E111" s="319"/>
-      <c r="F111" s="320"/>
-      <c r="G111" s="316"/>
-      <c r="H111" s="321"/>
-      <c r="I111" s="322"/>
-      <c r="J111" s="316"/>
-      <c r="K111" s="316"/>
-      <c r="L111" s="316"/>
+      <c r="A111" s="199"/>
+      <c r="B111" s="199"/>
+      <c r="D111" s="292"/>
+      <c r="E111" s="293"/>
+      <c r="F111" s="294"/>
+      <c r="G111" s="199"/>
+      <c r="H111" s="203"/>
+      <c r="I111" s="202"/>
+      <c r="J111" s="199"/>
+      <c r="K111" s="199"/>
+      <c r="L111" s="199"/>
       <c r="AO111" s="201"/>
       <c r="AP111" s="201"/>
       <c r="AQ111" s="202"/>
@@ -28514,118 +28435,120 @@
       </c>
     </row>
     <row r="121" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="335" t="s">
+      <c r="A121" s="303" t="s">
         <v>276</v>
       </c>
-      <c r="B121" s="335" t="str">
+      <c r="B121" s="303" t="str">
         <f>B113</f>
         <v>Емкость DP ЛВЖ</v>
       </c>
-      <c r="C121" s="335" t="s">
+      <c r="C121" s="303" t="s">
         <v>277</v>
       </c>
-      <c r="D121" s="335"/>
-      <c r="E121" s="336">
+      <c r="D121" s="303" t="s">
+        <v>278</v>
+      </c>
+      <c r="E121" s="304">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F121" s="335">
+      <c r="F121" s="303">
         <v>1</v>
       </c>
-      <c r="G121" s="335">
+      <c r="G121" s="303">
         <v>1</v>
       </c>
-      <c r="H121" s="337">
+      <c r="H121" s="305">
         <f t="shared" si="147"/>
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="I121" s="338">
+      <c r="I121" s="306">
         <f>I113</f>
         <v>12</v>
       </c>
-      <c r="J121" s="338">
-        <f>J113</f>
-        <v>12</v>
-      </c>
-      <c r="K121" s="335"/>
-      <c r="L121" s="335"/>
-      <c r="M121" s="339" t="str">
+      <c r="J121" s="306">
+        <f>J113*0.6</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K121" s="303"/>
+      <c r="L121" s="303"/>
+      <c r="M121" s="307" t="str">
         <f t="shared" si="143"/>
         <v>С9</v>
       </c>
-      <c r="N121" s="339"/>
-      <c r="O121" s="339"/>
-      <c r="P121" s="339"/>
-      <c r="Q121" s="339"/>
-      <c r="R121" s="339"/>
-      <c r="S121" s="339"/>
-      <c r="T121" s="339"/>
-      <c r="U121" s="339"/>
-      <c r="V121" s="339"/>
-      <c r="W121" s="339"/>
-      <c r="X121" s="339"/>
-      <c r="Y121" s="339"/>
-      <c r="Z121" s="339"/>
-      <c r="AA121" s="339"/>
-      <c r="AB121" s="339"/>
-      <c r="AC121" s="339"/>
-      <c r="AD121" s="339"/>
-      <c r="AE121" s="339"/>
-      <c r="AF121" s="339"/>
-      <c r="AG121" s="339"/>
-      <c r="AH121" s="339">
+      <c r="N121" s="307"/>
+      <c r="O121" s="307"/>
+      <c r="P121" s="307"/>
+      <c r="Q121" s="307"/>
+      <c r="R121" s="307"/>
+      <c r="S121" s="307"/>
+      <c r="T121" s="307"/>
+      <c r="U121" s="307"/>
+      <c r="V121" s="307"/>
+      <c r="W121" s="307"/>
+      <c r="X121" s="307"/>
+      <c r="Y121" s="307"/>
+      <c r="Z121" s="307"/>
+      <c r="AA121" s="307"/>
+      <c r="AB121" s="307"/>
+      <c r="AC121" s="307"/>
+      <c r="AD121" s="307"/>
+      <c r="AE121" s="307"/>
+      <c r="AF121" s="307"/>
+      <c r="AG121" s="307"/>
+      <c r="AH121" s="307">
         <v>1</v>
       </c>
-      <c r="AI121" s="339">
+      <c r="AI121" s="307">
         <v>2</v>
       </c>
-      <c r="AJ121" s="339">
+      <c r="AJ121" s="307">
         <f>AJ113</f>
         <v>0.75</v>
       </c>
-      <c r="AK121" s="339">
+      <c r="AK121" s="307">
         <f>AK113</f>
         <v>2.7E-2</v>
       </c>
-      <c r="AL121" s="339">
+      <c r="AL121" s="307">
         <v>5</v>
       </c>
-      <c r="AM121" s="339"/>
-      <c r="AN121" s="339"/>
-      <c r="AO121" s="340">
+      <c r="AM121" s="307"/>
+      <c r="AN121" s="307"/>
+      <c r="AO121" s="308">
         <f>AK121*I121+AJ121</f>
         <v>1.0740000000000001</v>
       </c>
-      <c r="AP121" s="340">
+      <c r="AP121" s="308">
         <f>0.1*AO121</f>
         <v>0.10740000000000001</v>
       </c>
-      <c r="AQ121" s="341">
+      <c r="AQ121" s="309">
         <f>AH121*3+0.25*AI121</f>
         <v>3.5</v>
       </c>
-      <c r="AR121" s="341">
+      <c r="AR121" s="309">
         <f>SUM(AO121:AQ121)/4</f>
         <v>1.17035</v>
       </c>
-      <c r="AS121" s="340">
+      <c r="AS121" s="308">
         <f>10068.2*J121*POWER(10,-6)</f>
-        <v>0.12081840000000001</v>
-      </c>
-      <c r="AT121" s="341">
+        <v>7.2491039999999993E-2</v>
+      </c>
+      <c r="AT121" s="309">
         <f t="shared" si="146"/>
-        <v>5.9725684000000001</v>
-      </c>
-      <c r="AU121" s="342">
+        <v>5.9242410400000001</v>
+      </c>
+      <c r="AU121" s="310">
         <f>AH121*H121</f>
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="AV121" s="342">
+      <c r="AV121" s="310">
         <f>H121*AI121</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="AW121" s="342">
+      <c r="AW121" s="310">
         <f>H121*AT121</f>
-        <v>1.4931421E-4</v>
+        <v>1.4810602600000001E-4</v>
       </c>
     </row>
     <row r="122" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -29924,118 +29847,120 @@
       </c>
     </row>
     <row r="131" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="335" t="s">
+      <c r="A131" s="303" t="s">
         <v>276</v>
       </c>
-      <c r="B131" s="335" t="str">
+      <c r="B131" s="303" t="str">
         <f>B123</f>
         <v>Емкость DP ЛВЖ+токси</v>
       </c>
-      <c r="C131" s="335" t="s">
+      <c r="C131" s="303" t="s">
         <v>277</v>
       </c>
-      <c r="D131" s="335"/>
-      <c r="E131" s="336">
+      <c r="D131" s="303" t="s">
+        <v>278</v>
+      </c>
+      <c r="E131" s="304">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F131" s="335">
+      <c r="F131" s="303">
         <v>1</v>
       </c>
-      <c r="G131" s="335">
+      <c r="G131" s="303">
         <v>1</v>
       </c>
-      <c r="H131" s="337">
+      <c r="H131" s="305">
         <f t="shared" si="159"/>
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="I131" s="338">
+      <c r="I131" s="306">
         <f>I123</f>
         <v>12</v>
       </c>
-      <c r="J131" s="338">
-        <f>J123</f>
-        <v>12</v>
-      </c>
-      <c r="K131" s="335"/>
-      <c r="L131" s="335"/>
-      <c r="M131" s="339" t="str">
+      <c r="J131" s="306">
+        <f>J123*0.6</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="K131" s="303"/>
+      <c r="L131" s="303"/>
+      <c r="M131" s="307" t="str">
         <f t="shared" si="155"/>
         <v>С9</v>
       </c>
-      <c r="N131" s="339"/>
-      <c r="O131" s="339"/>
-      <c r="P131" s="339"/>
-      <c r="Q131" s="339"/>
-      <c r="R131" s="339"/>
-      <c r="S131" s="339"/>
-      <c r="T131" s="339"/>
-      <c r="U131" s="339"/>
-      <c r="V131" s="339"/>
-      <c r="W131" s="339"/>
-      <c r="X131" s="339"/>
-      <c r="Y131" s="339"/>
-      <c r="Z131" s="339"/>
-      <c r="AA131" s="339"/>
-      <c r="AB131" s="339"/>
-      <c r="AC131" s="339"/>
-      <c r="AD131" s="339"/>
-      <c r="AE131" s="339"/>
-      <c r="AF131" s="339"/>
-      <c r="AG131" s="339"/>
-      <c r="AH131" s="339">
+      <c r="N131" s="307"/>
+      <c r="O131" s="307"/>
+      <c r="P131" s="307"/>
+      <c r="Q131" s="307"/>
+      <c r="R131" s="307"/>
+      <c r="S131" s="307"/>
+      <c r="T131" s="307"/>
+      <c r="U131" s="307"/>
+      <c r="V131" s="307"/>
+      <c r="W131" s="307"/>
+      <c r="X131" s="307"/>
+      <c r="Y131" s="307"/>
+      <c r="Z131" s="307"/>
+      <c r="AA131" s="307"/>
+      <c r="AB131" s="307"/>
+      <c r="AC131" s="307"/>
+      <c r="AD131" s="307"/>
+      <c r="AE131" s="307"/>
+      <c r="AF131" s="307"/>
+      <c r="AG131" s="307"/>
+      <c r="AH131" s="307">
         <v>1</v>
       </c>
-      <c r="AI131" s="339">
+      <c r="AI131" s="307">
         <v>2</v>
       </c>
-      <c r="AJ131" s="339">
+      <c r="AJ131" s="307">
         <f>AJ123</f>
         <v>0.75</v>
       </c>
-      <c r="AK131" s="339">
+      <c r="AK131" s="307">
         <f>AK123</f>
         <v>2.7E-2</v>
       </c>
-      <c r="AL131" s="339">
+      <c r="AL131" s="307">
         <v>5</v>
       </c>
-      <c r="AM131" s="339"/>
-      <c r="AN131" s="339"/>
-      <c r="AO131" s="340">
+      <c r="AM131" s="307"/>
+      <c r="AN131" s="307"/>
+      <c r="AO131" s="308">
         <f>AK131*I131+AJ131</f>
         <v>1.0740000000000001</v>
       </c>
-      <c r="AP131" s="340">
+      <c r="AP131" s="308">
         <f>0.1*AO131</f>
         <v>0.10740000000000001</v>
       </c>
-      <c r="AQ131" s="341">
+      <c r="AQ131" s="309">
         <f>AH131*3+0.25*AI131</f>
         <v>3.5</v>
       </c>
-      <c r="AR131" s="341">
+      <c r="AR131" s="309">
         <f>SUM(AO131:AQ131)/4</f>
         <v>1.17035</v>
       </c>
-      <c r="AS131" s="340">
+      <c r="AS131" s="308">
         <f>10068.2*J131*POWER(10,-6)</f>
-        <v>0.12081840000000001</v>
-      </c>
-      <c r="AT131" s="341">
+        <v>7.2491039999999993E-2</v>
+      </c>
+      <c r="AT131" s="309">
         <f t="shared" si="158"/>
-        <v>5.9725684000000001</v>
-      </c>
-      <c r="AU131" s="342">
+        <v>5.9242410400000001</v>
+      </c>
+      <c r="AU131" s="310">
         <f>AH131*H131</f>
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="AV131" s="342">
+      <c r="AV131" s="310">
         <f>H131*AI131</f>
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="AW131" s="342">
+      <c r="AW131" s="310">
         <f>H131*AT131</f>
-        <v>1.4931421E-4</v>
+        <v>1.4810602600000001E-4</v>
       </c>
     </row>
     <row r="132" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -30590,7 +30515,7 @@
       <c r="K138" s="261" t="s">
         <v>219</v>
       </c>
-      <c r="L138" s="290">
+      <c r="L138" s="274">
         <v>14</v>
       </c>
       <c r="AO138" s="250"/>
@@ -30604,18 +30529,17 @@
       <c r="AW138" s="252"/>
     </row>
     <row r="139" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="323"/>
-      <c r="B139" s="323"/>
-      <c r="C139" s="324"/>
-      <c r="D139" s="325"/>
-      <c r="E139" s="326"/>
-      <c r="F139" s="327"/>
-      <c r="G139" s="323"/>
-      <c r="H139" s="328"/>
-      <c r="I139" s="329"/>
-      <c r="J139" s="329"/>
-      <c r="K139" s="323"/>
-      <c r="L139" s="327"/>
+      <c r="A139" s="248"/>
+      <c r="B139" s="248"/>
+      <c r="D139" s="295"/>
+      <c r="E139" s="296"/>
+      <c r="F139" s="297"/>
+      <c r="G139" s="248"/>
+      <c r="H139" s="252"/>
+      <c r="I139" s="251"/>
+      <c r="J139" s="251"/>
+      <c r="K139" s="248"/>
+      <c r="L139" s="297"/>
       <c r="AO139" s="250"/>
       <c r="AP139" s="250"/>
       <c r="AQ139" s="251"/>
@@ -30627,18 +30551,17 @@
       <c r="AW139" s="252"/>
     </row>
     <row r="140" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="323"/>
-      <c r="B140" s="323"/>
-      <c r="C140" s="324"/>
-      <c r="D140" s="325"/>
-      <c r="E140" s="326"/>
-      <c r="F140" s="327"/>
-      <c r="G140" s="323"/>
-      <c r="H140" s="328"/>
-      <c r="I140" s="329"/>
-      <c r="J140" s="329"/>
-      <c r="K140" s="323"/>
-      <c r="L140" s="327"/>
+      <c r="A140" s="248"/>
+      <c r="B140" s="248"/>
+      <c r="D140" s="295"/>
+      <c r="E140" s="296"/>
+      <c r="F140" s="297"/>
+      <c r="G140" s="248"/>
+      <c r="H140" s="252"/>
+      <c r="I140" s="251"/>
+      <c r="J140" s="251"/>
+      <c r="K140" s="248"/>
+      <c r="L140" s="297"/>
       <c r="AO140" s="250"/>
       <c r="AP140" s="250"/>
       <c r="AQ140" s="251"/>
@@ -30650,18 +30573,17 @@
       <c r="AW140" s="252"/>
     </row>
     <row r="141" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="323"/>
-      <c r="B141" s="323"/>
-      <c r="C141" s="324"/>
-      <c r="D141" s="325"/>
-      <c r="E141" s="326"/>
-      <c r="F141" s="327"/>
-      <c r="G141" s="323"/>
-      <c r="H141" s="328"/>
-      <c r="I141" s="329"/>
-      <c r="J141" s="329"/>
-      <c r="K141" s="323"/>
-      <c r="L141" s="327"/>
+      <c r="A141" s="248"/>
+      <c r="B141" s="248"/>
+      <c r="D141" s="295"/>
+      <c r="E141" s="296"/>
+      <c r="F141" s="297"/>
+      <c r="G141" s="248"/>
+      <c r="H141" s="252"/>
+      <c r="I141" s="251"/>
+      <c r="J141" s="251"/>
+      <c r="K141" s="248"/>
+      <c r="L141" s="297"/>
       <c r="AO141" s="250"/>
       <c r="AP141" s="250"/>
       <c r="AQ141" s="251"/>
@@ -30702,7 +30624,7 @@
       <c r="I143" s="243">
         <v>12</v>
       </c>
-      <c r="J143" s="334">
+      <c r="J143" s="302">
         <f>I143</f>
         <v>12</v>
       </c>
@@ -30863,7 +30785,7 @@
         <f>I143</f>
         <v>12</v>
       </c>
-      <c r="J144" s="334">
+      <c r="J144" s="302">
         <f>I143</f>
         <v>12</v>
       </c>
@@ -31225,7 +31147,7 @@
       <c r="K148" s="261" t="s">
         <v>219</v>
       </c>
-      <c r="L148" s="290">
+      <c r="L148" s="274">
         <v>14</v>
       </c>
       <c r="AO148" s="250"/>
@@ -31239,18 +31161,17 @@
       <c r="AW148" s="252"/>
     </row>
     <row r="149" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="323"/>
-      <c r="B149" s="323"/>
-      <c r="C149" s="324"/>
-      <c r="D149" s="325"/>
-      <c r="E149" s="326"/>
-      <c r="F149" s="327"/>
-      <c r="G149" s="323"/>
-      <c r="H149" s="328"/>
-      <c r="I149" s="329"/>
-      <c r="J149" s="329"/>
-      <c r="K149" s="323"/>
-      <c r="L149" s="327"/>
+      <c r="A149" s="248"/>
+      <c r="B149" s="248"/>
+      <c r="D149" s="295"/>
+      <c r="E149" s="296"/>
+      <c r="F149" s="297"/>
+      <c r="G149" s="248"/>
+      <c r="H149" s="252"/>
+      <c r="I149" s="251"/>
+      <c r="J149" s="251"/>
+      <c r="K149" s="248"/>
+      <c r="L149" s="297"/>
       <c r="AO149" s="250"/>
       <c r="AP149" s="250"/>
       <c r="AQ149" s="251"/>
@@ -31262,18 +31183,17 @@
       <c r="AW149" s="252"/>
     </row>
     <row r="150" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="323"/>
-      <c r="B150" s="323"/>
-      <c r="C150" s="324"/>
-      <c r="D150" s="325"/>
-      <c r="E150" s="326"/>
-      <c r="F150" s="327"/>
-      <c r="G150" s="323"/>
-      <c r="H150" s="328"/>
-      <c r="I150" s="329"/>
-      <c r="J150" s="329"/>
-      <c r="K150" s="323"/>
-      <c r="L150" s="327"/>
+      <c r="A150" s="248"/>
+      <c r="B150" s="248"/>
+      <c r="D150" s="295"/>
+      <c r="E150" s="296"/>
+      <c r="F150" s="297"/>
+      <c r="G150" s="248"/>
+      <c r="H150" s="252"/>
+      <c r="I150" s="251"/>
+      <c r="J150" s="251"/>
+      <c r="K150" s="248"/>
+      <c r="L150" s="297"/>
       <c r="AO150" s="250"/>
       <c r="AP150" s="250"/>
       <c r="AQ150" s="251"/>
@@ -31285,18 +31205,17 @@
       <c r="AW150" s="252"/>
     </row>
     <row r="151" spans="1:49" s="247" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="323"/>
-      <c r="B151" s="323"/>
-      <c r="C151" s="324"/>
-      <c r="D151" s="325"/>
-      <c r="E151" s="326"/>
-      <c r="F151" s="327"/>
-      <c r="G151" s="323"/>
-      <c r="H151" s="328"/>
-      <c r="I151" s="329"/>
-      <c r="J151" s="329"/>
-      <c r="K151" s="323"/>
-      <c r="L151" s="327"/>
+      <c r="A151" s="248"/>
+      <c r="B151" s="248"/>
+      <c r="D151" s="295"/>
+      <c r="E151" s="296"/>
+      <c r="F151" s="297"/>
+      <c r="G151" s="248"/>
+      <c r="H151" s="252"/>
+      <c r="I151" s="251"/>
+      <c r="J151" s="251"/>
+      <c r="K151" s="248"/>
+      <c r="L151" s="297"/>
       <c r="AO151" s="250"/>
       <c r="AP151" s="250"/>
       <c r="AQ151" s="251"/>
@@ -31498,7 +31417,7 @@
         <f>I153</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="J154" s="330">
+      <c r="J154" s="298">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
@@ -32284,18 +32203,17 @@
       </c>
     </row>
     <row r="159" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="316"/>
-      <c r="B159" s="316"/>
-      <c r="C159" s="317"/>
-      <c r="D159" s="318"/>
-      <c r="E159" s="319"/>
-      <c r="F159" s="320"/>
-      <c r="G159" s="316"/>
-      <c r="H159" s="321"/>
-      <c r="I159" s="322"/>
-      <c r="J159" s="316"/>
-      <c r="K159" s="316"/>
-      <c r="L159" s="316"/>
+      <c r="A159" s="199"/>
+      <c r="B159" s="199"/>
+      <c r="D159" s="292"/>
+      <c r="E159" s="293"/>
+      <c r="F159" s="294"/>
+      <c r="G159" s="199"/>
+      <c r="H159" s="203"/>
+      <c r="I159" s="202"/>
+      <c r="J159" s="199"/>
+      <c r="K159" s="199"/>
+      <c r="L159" s="199"/>
       <c r="AO159" s="201"/>
       <c r="AP159" s="201"/>
       <c r="AQ159" s="202"/>
@@ -32307,18 +32225,17 @@
       <c r="AW159" s="203"/>
     </row>
     <row r="160" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="316"/>
-      <c r="B160" s="316"/>
-      <c r="C160" s="317"/>
-      <c r="D160" s="318"/>
-      <c r="E160" s="319"/>
-      <c r="F160" s="320"/>
-      <c r="G160" s="316"/>
-      <c r="H160" s="321"/>
-      <c r="I160" s="322"/>
-      <c r="J160" s="316"/>
-      <c r="K160" s="316"/>
-      <c r="L160" s="316"/>
+      <c r="A160" s="199"/>
+      <c r="B160" s="199"/>
+      <c r="D160" s="292"/>
+      <c r="E160" s="293"/>
+      <c r="F160" s="294"/>
+      <c r="G160" s="199"/>
+      <c r="H160" s="203"/>
+      <c r="I160" s="202"/>
+      <c r="J160" s="199"/>
+      <c r="K160" s="199"/>
+      <c r="L160" s="199"/>
       <c r="AO160" s="201"/>
       <c r="AP160" s="201"/>
       <c r="AQ160" s="202"/>
@@ -32330,18 +32247,17 @@
       <c r="AW160" s="203"/>
     </row>
     <row r="161" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="316"/>
-      <c r="B161" s="316"/>
-      <c r="C161" s="317"/>
-      <c r="D161" s="318"/>
-      <c r="E161" s="319"/>
-      <c r="F161" s="320"/>
-      <c r="G161" s="316"/>
-      <c r="H161" s="321"/>
-      <c r="I161" s="322"/>
-      <c r="J161" s="316"/>
-      <c r="K161" s="316"/>
-      <c r="L161" s="316"/>
+      <c r="A161" s="199"/>
+      <c r="B161" s="199"/>
+      <c r="D161" s="292"/>
+      <c r="E161" s="293"/>
+      <c r="F161" s="294"/>
+      <c r="G161" s="199"/>
+      <c r="H161" s="203"/>
+      <c r="I161" s="202"/>
+      <c r="J161" s="199"/>
+      <c r="K161" s="199"/>
+      <c r="L161" s="199"/>
       <c r="AO161" s="201"/>
       <c r="AP161" s="201"/>
       <c r="AQ161" s="202"/>
@@ -32543,7 +32459,7 @@
         <f>I163</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="J164" s="330">
+      <c r="J164" s="298">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
@@ -33329,18 +33245,17 @@
       </c>
     </row>
     <row r="169" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="316"/>
-      <c r="B169" s="316"/>
-      <c r="C169" s="317"/>
-      <c r="D169" s="318"/>
-      <c r="E169" s="319"/>
-      <c r="F169" s="320"/>
-      <c r="G169" s="316"/>
-      <c r="H169" s="321"/>
-      <c r="I169" s="322"/>
-      <c r="J169" s="316"/>
-      <c r="K169" s="316"/>
-      <c r="L169" s="316"/>
+      <c r="A169" s="199"/>
+      <c r="B169" s="199"/>
+      <c r="D169" s="292"/>
+      <c r="E169" s="293"/>
+      <c r="F169" s="294"/>
+      <c r="G169" s="199"/>
+      <c r="H169" s="203"/>
+      <c r="I169" s="202"/>
+      <c r="J169" s="199"/>
+      <c r="K169" s="199"/>
+      <c r="L169" s="199"/>
       <c r="AO169" s="201"/>
       <c r="AP169" s="201"/>
       <c r="AQ169" s="202"/>
@@ -33352,18 +33267,17 @@
       <c r="AW169" s="203"/>
     </row>
     <row r="170" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="316"/>
-      <c r="B170" s="316"/>
-      <c r="C170" s="317"/>
-      <c r="D170" s="318"/>
-      <c r="E170" s="319"/>
-      <c r="F170" s="320"/>
-      <c r="G170" s="316"/>
-      <c r="H170" s="321"/>
-      <c r="I170" s="322"/>
-      <c r="J170" s="316"/>
-      <c r="K170" s="316"/>
-      <c r="L170" s="316"/>
+      <c r="A170" s="199"/>
+      <c r="B170" s="199"/>
+      <c r="D170" s="292"/>
+      <c r="E170" s="293"/>
+      <c r="F170" s="294"/>
+      <c r="G170" s="199"/>
+      <c r="H170" s="203"/>
+      <c r="I170" s="202"/>
+      <c r="J170" s="199"/>
+      <c r="K170" s="199"/>
+      <c r="L170" s="199"/>
       <c r="AO170" s="201"/>
       <c r="AP170" s="201"/>
       <c r="AQ170" s="202"/>
@@ -33375,18 +33289,17 @@
       <c r="AW170" s="203"/>
     </row>
     <row r="171" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="316"/>
-      <c r="B171" s="316"/>
-      <c r="C171" s="317"/>
-      <c r="D171" s="318"/>
-      <c r="E171" s="319"/>
-      <c r="F171" s="320"/>
-      <c r="G171" s="316"/>
-      <c r="H171" s="321"/>
-      <c r="I171" s="322"/>
-      <c r="J171" s="316"/>
-      <c r="K171" s="316"/>
-      <c r="L171" s="316"/>
+      <c r="A171" s="199"/>
+      <c r="B171" s="199"/>
+      <c r="D171" s="292"/>
+      <c r="E171" s="293"/>
+      <c r="F171" s="294"/>
+      <c r="G171" s="199"/>
+      <c r="H171" s="203"/>
+      <c r="I171" s="202"/>
+      <c r="J171" s="199"/>
+      <c r="K171" s="199"/>
+      <c r="L171" s="199"/>
       <c r="AO171" s="201"/>
       <c r="AP171" s="201"/>
       <c r="AQ171" s="202"/>
@@ -33588,7 +33501,7 @@
         <f>I173</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="J174" s="330">
+      <c r="J174" s="298">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
@@ -34374,18 +34287,17 @@
       </c>
     </row>
     <row r="179" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="316"/>
-      <c r="B179" s="316"/>
-      <c r="C179" s="317"/>
-      <c r="D179" s="318"/>
-      <c r="E179" s="319"/>
-      <c r="F179" s="320"/>
-      <c r="G179" s="316"/>
-      <c r="H179" s="321"/>
-      <c r="I179" s="322"/>
-      <c r="J179" s="316"/>
-      <c r="K179" s="316"/>
-      <c r="L179" s="316"/>
+      <c r="A179" s="199"/>
+      <c r="B179" s="199"/>
+      <c r="D179" s="292"/>
+      <c r="E179" s="293"/>
+      <c r="F179" s="294"/>
+      <c r="G179" s="199"/>
+      <c r="H179" s="203"/>
+      <c r="I179" s="202"/>
+      <c r="J179" s="199"/>
+      <c r="K179" s="199"/>
+      <c r="L179" s="199"/>
       <c r="AO179" s="201"/>
       <c r="AP179" s="201"/>
       <c r="AQ179" s="202"/>
@@ -34397,18 +34309,17 @@
       <c r="AW179" s="203"/>
     </row>
     <row r="180" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="316"/>
-      <c r="B180" s="316"/>
-      <c r="C180" s="317"/>
-      <c r="D180" s="318"/>
-      <c r="E180" s="319"/>
-      <c r="F180" s="320"/>
-      <c r="G180" s="316"/>
-      <c r="H180" s="321"/>
-      <c r="I180" s="322"/>
-      <c r="J180" s="316"/>
-      <c r="K180" s="316"/>
-      <c r="L180" s="316"/>
+      <c r="A180" s="199"/>
+      <c r="B180" s="199"/>
+      <c r="D180" s="292"/>
+      <c r="E180" s="293"/>
+      <c r="F180" s="294"/>
+      <c r="G180" s="199"/>
+      <c r="H180" s="203"/>
+      <c r="I180" s="202"/>
+      <c r="J180" s="199"/>
+      <c r="K180" s="199"/>
+      <c r="L180" s="199"/>
       <c r="AO180" s="201"/>
       <c r="AP180" s="201"/>
       <c r="AQ180" s="202"/>
@@ -34420,18 +34331,17 @@
       <c r="AW180" s="203"/>
     </row>
     <row r="181" spans="1:49" s="198" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="316"/>
-      <c r="B181" s="316"/>
-      <c r="C181" s="317"/>
-      <c r="D181" s="318"/>
-      <c r="E181" s="319"/>
-      <c r="F181" s="320"/>
-      <c r="G181" s="316"/>
-      <c r="H181" s="321"/>
-      <c r="I181" s="322"/>
-      <c r="J181" s="316"/>
-      <c r="K181" s="316"/>
-      <c r="L181" s="316"/>
+      <c r="A181" s="199"/>
+      <c r="B181" s="199"/>
+      <c r="D181" s="292"/>
+      <c r="E181" s="293"/>
+      <c r="F181" s="294"/>
+      <c r="G181" s="199"/>
+      <c r="H181" s="203"/>
+      <c r="I181" s="202"/>
+      <c r="J181" s="199"/>
+      <c r="K181" s="199"/>
+      <c r="L181" s="199"/>
       <c r="AO181" s="201"/>
       <c r="AP181" s="201"/>
       <c r="AQ181" s="202"/>
@@ -34469,10 +34379,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="287"/>
+      <c r="B1" s="324"/>
       <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:15" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -34695,10 +34605,10 @@
       <c r="B11" s="89"/>
       <c r="C11" s="89"/>
       <c r="D11" s="89"/>
-      <c r="E11" s="288" t="s">
+      <c r="E11" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="289"/>
+      <c r="F11" s="326"/>
       <c r="G11" s="90">
         <f>SUM(G3:G10)</f>
         <v>10068.197119718401</v>
@@ -37773,52 +37683,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="160" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="159" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="158" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="157" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="156" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="155" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="154" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="152" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38306,52 +38216,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="150" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="149" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="147" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="146" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="145" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="143" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="142" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="141" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38830,42 +38740,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="140" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="139" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="138" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="137" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="133" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39344,42 +39254,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="132" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="131" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="130" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="125" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="129" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="127" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="126" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="125" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39867,52 +39777,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="124" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="123" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="122" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="121" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="120" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="119" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="118" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="116" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40400,52 +40310,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="113" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="111" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="109" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="107" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="105" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40933,52 +40843,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="104" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="103" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="102" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="100" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="99" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/risk_analysis_prototype.xlsx
+++ b/risk_analysis_prototype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\risk_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078F782E-F057-4279-9AE9-BBF39F3DE7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8394127D-B3F7-4275-A343-20983047285D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="1656" windowWidth="41544" windowHeight="14232" tabRatio="904" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="996" windowWidth="40920" windowHeight="13992" tabRatio="904" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="28" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="619">
   <si>
     <t>Оборудование</t>
   </si>
@@ -2154,6 +2154,12 @@
   <si>
     <t>C97</t>
   </si>
+  <si>
+    <t>Инд.риск погибшие, чел/год</t>
+  </si>
+  <si>
+    <t>Инд.риск пострадавшие, чел/год</t>
+  </si>
 </sst>
 </file>
 
@@ -3175,7 +3181,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="352">
+  <cellXfs count="353">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3629,27 +3635,9 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3669,6 +3657,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3694,6 +3700,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -3862,7 +3869,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,7 +3913,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3950,7 +3957,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3994,7 +4001,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4038,7 +4045,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4094,7 @@
         <xdr:cNvPr id="9" name="FN">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1D00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4137,7 +4144,7 @@
         <xdr:cNvPr id="11" name="FG">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1D00-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4192,7 +4199,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1E00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4236,7 +4243,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1E00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14588,45 +14595,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="332" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="340" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="334" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="341"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="338" t="s">
+      <c r="D1" s="335"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="332" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="343"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="332" t="s">
+      <c r="G1" s="337"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="330" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="332" t="s">
+      <c r="J1" s="330" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="332" t="s">
+      <c r="K1" s="330" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="336" t="s">
+      <c r="L1" s="342" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="332" t="s">
+      <c r="M1" s="330" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="332" t="s">
+      <c r="N1" s="330" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="330" t="s">
+      <c r="O1" s="338" t="s">
         <v>78</v>
       </c>
-      <c r="P1" s="332" t="s">
+      <c r="P1" s="330" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="334" t="s">
+      <c r="Q1" s="340" t="s">
         <v>96</v>
       </c>
       <c r="R1" s="56" t="s">
@@ -14661,15 +14668,15 @@
       <c r="H2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="331"/>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="335"/>
+      <c r="I2" s="331"/>
+      <c r="J2" s="331"/>
+      <c r="K2" s="331"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="331"/>
+      <c r="N2" s="331"/>
+      <c r="O2" s="339"/>
+      <c r="P2" s="331"/>
+      <c r="Q2" s="341"/>
     </row>
     <row r="3" spans="1:45" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
@@ -17799,11 +17806,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
@@ -17811,6 +17813,11 @@
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17824,9 +17831,9 @@
   <sheetPr codeName="Лист30"/>
   <dimension ref="A1:BA120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV2" sqref="AV2:AV20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18014,10 +18021,10 @@
         <v>55</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>345</v>
+        <v>617</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>346</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -18182,6 +18189,14 @@
         <f>H2*AV2</f>
         <v>1.8110436960000001E-3</v>
       </c>
+      <c r="AZ2" s="352">
+        <f>AW2/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="352">
+        <f>AX2/DB!$B$23</f>
+        <v>1.0245901639344263E-6</v>
+      </c>
     </row>
     <row r="3" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="132" t="s">
@@ -18352,6 +18367,14 @@
         <f t="shared" ref="AY3:AY9" si="9">H3*AV3</f>
         <v>2.1007681163540001E-2</v>
       </c>
+      <c r="AZ3" s="352">
+        <f>AW3/DB!$B$23</f>
+        <v>1.9467213114754098E-6</v>
+      </c>
+      <c r="BA3" s="352">
+        <f>AX3/DB!$B$23</f>
+        <v>3.8934426229508196E-6</v>
+      </c>
     </row>
     <row r="4" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="132" t="s">
@@ -18372,7 +18395,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F4" s="148">
-        <f t="shared" ref="F4:F10" si="10">F3</f>
+        <f t="shared" ref="F4:F9" si="10">F3</f>
         <v>20000</v>
       </c>
       <c r="G4" s="132">
@@ -18521,6 +18544,14 @@
         <f>H4*AV4</f>
         <v>1.5926548448E-2</v>
       </c>
+      <c r="AZ4" s="352">
+        <f>AW4/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="352">
+        <f>AX4/DB!$B$23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="132" t="s">
@@ -18690,6 +18721,14 @@
         <f t="shared" si="9"/>
         <v>3.3792408352000007E-3</v>
       </c>
+      <c r="AZ5" s="352">
+        <f>AW5/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="352">
+        <f>AX5/DB!$B$23</f>
+        <v>4.0983606557377061E-6</v>
+      </c>
     </row>
     <row r="6" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="132" t="s">
@@ -18859,6 +18898,14 @@
         <f t="shared" si="9"/>
         <v>1.3885839664000003E-2</v>
       </c>
+      <c r="AZ6" s="352">
+        <f>AW6/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="352">
+        <f>AX6/DB!$B$23</f>
+        <v>1.6393442622950824E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="132" t="s">
@@ -19029,6 +19076,14 @@
         <f t="shared" si="9"/>
         <v>3.3528628652800007E-3</v>
       </c>
+      <c r="AZ7" s="352">
+        <f>AW7/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="352">
+        <f>AX7/DB!$B$23</f>
+        <v>4.0983606557377061E-6</v>
+      </c>
     </row>
     <row r="8" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="132" t="s">
@@ -19198,6 +19253,14 @@
       <c r="AY8" s="146">
         <f t="shared" si="9"/>
         <v>1.2740878888064003E-2</v>
+      </c>
+      <c r="AZ8" s="352">
+        <f>AW8/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="352">
+        <f>AX8/DB!$B$23</f>
+        <v>1.5573770491803282E-5</v>
       </c>
     </row>
     <row r="9" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -19363,6 +19426,14 @@
       <c r="AY9" s="146">
         <f t="shared" si="9"/>
         <v>1.2585278720640006E-2</v>
+      </c>
+      <c r="AZ9" s="352">
+        <f>AW9/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="352">
+        <f>AX9/DB!$B$23</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
@@ -19505,6 +19576,14 @@
         <f>H10*AV10</f>
         <v>4.4533059240000006E-5</v>
       </c>
+      <c r="AZ10" s="352">
+        <f>AW10/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="352">
+        <f>AX10/DB!$B$23</f>
+        <v>2.5614754098360658E-8</v>
+      </c>
     </row>
     <row r="11" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -19669,6 +19748,14 @@
         <f>H12*AV12</f>
         <v>3.2923321019999993E-7</v>
       </c>
+      <c r="AZ12" s="352">
+        <f>AW12/DB!$B$23</f>
+        <v>2.5614754098360654E-11</v>
+      </c>
+      <c r="BA12" s="352">
+        <f>AX12/DB!$B$23</f>
+        <v>5.1229508196721309E-11</v>
+      </c>
     </row>
     <row r="13" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="132" t="s">
@@ -19839,6 +19926,14 @@
         <f t="shared" ref="AY13" si="21">H13*AV13</f>
         <v>7.1741181186562E-5</v>
       </c>
+      <c r="AZ13" s="352">
+        <f>AW13/DB!$B$23</f>
+        <v>9.7336065573770473E-9</v>
+      </c>
+      <c r="BA13" s="352">
+        <f>AX13/DB!$B$23</f>
+        <v>1.9467213114754096E-10</v>
+      </c>
     </row>
     <row r="14" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="132" t="s">
@@ -20008,6 +20103,14 @@
         <f>H14*AV14</f>
         <v>8.7949946259999988E-7</v>
       </c>
+      <c r="AZ14" s="352">
+        <f>AW14/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="352">
+        <f>AX14/DB!$B$23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="132" t="s">
@@ -20177,6 +20280,14 @@
         <f t="shared" ref="AY15:AY19" si="23">H15*AV15</f>
         <v>1.8689624474000003E-7</v>
       </c>
+      <c r="AZ15" s="352">
+        <f>AW15/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="352">
+        <f>AX15/DB!$B$23</f>
+        <v>2.0491803278688529E-10</v>
+      </c>
     </row>
     <row r="16" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="132" t="s">
@@ -20346,8 +20457,16 @@
         <f t="shared" si="23"/>
         <v>8.878857992000002E-7</v>
       </c>
-    </row>
-    <row r="17" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ16" s="352">
+        <f>AW16/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="352">
+        <f>AX16/DB!$B$23</f>
+        <v>8.1967213114754115E-10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="132" t="s">
         <v>534</v>
       </c>
@@ -20516,8 +20635,16 @@
         <f t="shared" si="23"/>
         <v>1.7685572783600002E-7</v>
       </c>
-    </row>
-    <row r="18" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ17" s="352">
+        <f>AW17/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="352">
+        <f>AX17/DB!$B$23</f>
+        <v>2.0491803278688529E-10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="132" t="s">
         <v>535</v>
       </c>
@@ -20686,8 +20813,16 @@
         <f t="shared" si="23"/>
         <v>6.7205176577680008E-7</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ18" s="352">
+        <f>AW18/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="352">
+        <f>AX18/DB!$B$23</f>
+        <v>7.7868852459016403E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="132" t="s">
         <v>536</v>
       </c>
@@ -20851,8 +20986,16 @@
         <f t="shared" si="23"/>
         <v>6.4423490326800016E-7</v>
       </c>
-    </row>
-    <row r="20" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ19" s="352">
+        <f>AW19/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="352">
+        <f>AX19/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="195" t="s">
         <v>537</v>
       </c>
@@ -20993,9 +21136,17 @@
         <f>H20*AV20</f>
         <v>1.5864578494250001E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:51" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ20" s="352">
+        <f>AW20/DB!$B$23</f>
+        <v>1.2807377049180329E-8</v>
+      </c>
+      <c r="BA20" s="352">
+        <f>AX20/DB!$B$23</f>
+        <v>2.5614754098360658E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="132" t="s">
         <v>538</v>
       </c>
@@ -21157,8 +21308,16 @@
         <f>H22*AV22</f>
         <v>1.5149605828E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ22" s="352">
+        <f>AW22/DB!$B$23</f>
+        <v>8.9651639344262287E-7</v>
+      </c>
+      <c r="BA22" s="352">
+        <f>AX22/DB!$B$23</f>
+        <v>1.7930327868852457E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="132" t="s">
         <v>539</v>
       </c>
@@ -21327,8 +21486,16 @@
         <f t="shared" ref="AY23" si="34">H23*AV23</f>
         <v>5.2971084446125999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ23" s="352">
+        <f>AW23/DB!$B$23</f>
+        <v>3.4067622950819672E-6</v>
+      </c>
+      <c r="BA23" s="352">
+        <f>AX23/DB!$B$23</f>
+        <v>6.8135245901639345E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="132" t="s">
         <v>540</v>
       </c>
@@ -21347,7 +21514,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F24" s="148">
-        <f t="shared" ref="F24:F30" si="35">F23</f>
+        <f t="shared" ref="F24:F29" si="35">F23</f>
         <v>35000</v>
       </c>
       <c r="G24" s="132">
@@ -21496,8 +21663,16 @@
         <f>H24*AV24</f>
         <v>3.6675655464E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ24" s="352">
+        <f>AW24/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA24" s="352">
+        <f>AX24/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="132" t="s">
         <v>541</v>
       </c>
@@ -21665,8 +21840,16 @@
         <f t="shared" ref="AY25:AY29" si="36">H25*AV25</f>
         <v>7.8121006936000019E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ25" s="352">
+        <f>AW25/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA25" s="352">
+        <f>AX25/DB!$B$23</f>
+        <v>7.1721311475409855E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="132" t="s">
         <v>542</v>
       </c>
@@ -21834,8 +22017,16 @@
         <f t="shared" si="36"/>
         <v>4.4771217601600015E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ26" s="352">
+        <f>AW26/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA26" s="352">
+        <f>AX26/DB!$B$23</f>
+        <v>2.8688524590163942E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="132" t="s">
         <v>543</v>
       </c>
@@ -22004,8 +22195,16 @@
         <f t="shared" si="36"/>
         <v>6.8427102990400029E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ27" s="352">
+        <f>AW27/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="352">
+        <f>AX27/DB!$B$23</f>
+        <v>7.1721311475409855E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="132" t="s">
         <v>544</v>
       </c>
@@ -22174,8 +22373,16 @@
         <f t="shared" si="36"/>
         <v>2.6002299136352009E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:51" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ28" s="352">
+        <f>AW28/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA28" s="352">
+        <f>AX28/DB!$B$23</f>
+        <v>2.7254098360655745E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="132" t="s">
         <v>545</v>
       </c>
@@ -22339,8 +22546,16 @@
         <f t="shared" si="36"/>
         <v>2.3608992983520007E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ29" s="352">
+        <f>AW29/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA29" s="352">
+        <f>AX29/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="195" t="s">
         <v>546</v>
       </c>
@@ -22480,9 +22695,17 @@
         <f>H30*AV30</f>
         <v>1.9995237202E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:51" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ30" s="352">
+        <f>AW30/DB!$B$23</f>
+        <v>1.2807377049180329E-8</v>
+      </c>
+      <c r="BA30" s="352">
+        <f>AX30/DB!$B$23</f>
+        <v>2.5614754098360658E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="132" t="s">
         <v>547</v>
       </c>
@@ -22644,8 +22867,16 @@
         <f>H32*AV32</f>
         <v>8.6569176160000013E-7</v>
       </c>
-    </row>
-    <row r="33" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ32" s="352">
+        <f>AW32/DB!$B$23</f>
+        <v>5.1229508196721309E-11</v>
+      </c>
+      <c r="BA32" s="352">
+        <f>AX32/DB!$B$23</f>
+        <v>1.0245901639344262E-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="132" t="s">
         <v>548</v>
       </c>
@@ -22814,8 +23045,16 @@
         <f t="shared" ref="AY33" si="47">H33*AV33</f>
         <v>3.5785191911120719E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ33" s="352">
+        <f>AW33/DB!$B$23</f>
+        <v>4.8668032786885243E-8</v>
+      </c>
+      <c r="BA33" s="352">
+        <f>AX33/DB!$B$23</f>
+        <v>3.8934426229508191E-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="132" t="s">
         <v>549</v>
       </c>
@@ -22983,8 +23222,16 @@
         <f>H34*AV34</f>
         <v>2.0957517407999999E-6</v>
       </c>
-    </row>
-    <row r="35" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ34" s="352">
+        <f>AW34/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA34" s="352">
+        <f>AX34/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="132" t="s">
         <v>550</v>
       </c>
@@ -23152,8 +23399,16 @@
         <f t="shared" ref="AY35:AY39" si="49">H35*AV35</f>
         <v>4.4640575392000006E-7</v>
       </c>
-    </row>
-    <row r="36" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ35" s="352">
+        <f>AW35/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA35" s="352">
+        <f>AX35/DB!$B$23</f>
+        <v>4.0983606557377057E-10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="132" t="s">
         <v>551</v>
       </c>
@@ -23321,8 +23576,16 @@
         <f t="shared" si="49"/>
         <v>2.5583552915200008E-6</v>
       </c>
-    </row>
-    <row r="37" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ36" s="352">
+        <f>AW36/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA36" s="352">
+        <f>AX36/DB!$B$23</f>
+        <v>1.6393442622950823E-9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="132" t="s">
         <v>552</v>
       </c>
@@ -23491,8 +23754,16 @@
         <f t="shared" si="49"/>
         <v>3.9101201708800012E-7</v>
       </c>
-    </row>
-    <row r="38" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ37" s="352">
+        <f>AW37/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA37" s="352">
+        <f>AX37/DB!$B$23</f>
+        <v>4.0983606557377057E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="132" t="s">
         <v>553</v>
       </c>
@@ -23661,8 +23932,16 @@
         <f t="shared" si="49"/>
         <v>1.4858456649344005E-6</v>
       </c>
-    </row>
-    <row r="39" spans="1:51" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ38" s="352">
+        <f>AW38/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA38" s="352">
+        <f>AX38/DB!$B$23</f>
+        <v>1.5573770491803281E-9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="132" t="s">
         <v>554</v>
       </c>
@@ -23826,8 +24105,16 @@
         <f t="shared" si="49"/>
         <v>1.3490853133440003E-6</v>
       </c>
-    </row>
-    <row r="40" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ39" s="352">
+        <f>AW39/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA39" s="352">
+        <f>AX39/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="195" t="s">
         <v>555</v>
       </c>
@@ -23968,9 +24255,17 @@
         <f>H40*AV40</f>
         <v>3.9990474403999999E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ40" s="352">
+        <f>AW40/DB!$B$23</f>
+        <v>2.5614754098360658E-8</v>
+      </c>
+      <c r="BA40" s="352">
+        <f>AX40/DB!$B$23</f>
+        <v>5.1229508196721316E-8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>556</v>
       </c>
@@ -24135,8 +24430,16 @@
         <f t="shared" ref="AY42:AY47" si="60">H42*AV42</f>
         <v>2.7901983575999999E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ42" s="352">
+        <f>AW42/DB!$B$23</f>
+        <v>3.0737704918032789E-6</v>
+      </c>
+      <c r="BA42" s="352">
+        <f>AX42/DB!$B$23</f>
+        <v>3.0737704918032789E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>557</v>
       </c>
@@ -24307,8 +24610,16 @@
         <f t="shared" si="60"/>
         <v>2.3562643514521916E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ43" s="352">
+        <f>AW43/DB!$B$23</f>
+        <v>3.0737704918032785E-6</v>
+      </c>
+      <c r="BA43" s="352">
+        <f>AX43/DB!$B$23</f>
+        <v>6.1475409836065568E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>558</v>
       </c>
@@ -24478,8 +24789,16 @@
         <f t="shared" si="60"/>
         <v>1.1885940991473122E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ44" s="352">
+        <f>AW44/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA44" s="352">
+        <f>AX44/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>559</v>
       </c>
@@ -24649,8 +24968,16 @@
         <f t="shared" si="60"/>
         <v>1.1246800182E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ45" s="352">
+        <f>AW45/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA45" s="352">
+        <f>AX45/DB!$B$23</f>
+        <v>1.5368852459016393E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>560</v>
       </c>
@@ -24820,8 +25147,16 @@
         <f t="shared" si="60"/>
         <v>1.3010165850000002E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ46" s="352">
+        <f>AW46/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA46" s="352">
+        <f>AX46/DB!$B$23</f>
+        <v>1.5368852459016395E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A47" s="171" t="s">
         <v>561</v>
       </c>
@@ -24991,8 +25326,16 @@
         <f t="shared" si="60"/>
         <v>5.9760149474999994E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:51" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ47" s="352">
+        <f>AW47/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA47" s="352">
+        <f>AX47/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" s="181" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>562</v>
       </c>
@@ -25056,8 +25399,10 @@
       <c r="AW48" s="8"/>
       <c r="AX48" s="8"/>
       <c r="AY48" s="8"/>
-    </row>
-    <row r="49" spans="1:51" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ48" s="352"/>
+      <c r="BA48" s="352"/>
+    </row>
+    <row r="49" spans="1:53" s="181" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -25115,8 +25460,10 @@
       <c r="AW49" s="8"/>
       <c r="AX49" s="8"/>
       <c r="AY49" s="8"/>
-    </row>
-    <row r="50" spans="1:51" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ49" s="352"/>
+      <c r="BA49" s="352"/>
+    </row>
+    <row r="50" spans="1:53" s="181" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -25174,9 +25521,11 @@
       <c r="AW50" s="8"/>
       <c r="AX50" s="8"/>
       <c r="AY50" s="8"/>
-    </row>
-    <row r="51" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:51" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ50" s="352"/>
+      <c r="BA50" s="352"/>
+    </row>
+    <row r="51" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:53" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="83" t="s">
         <v>563</v>
       </c>
@@ -25339,8 +25688,16 @@
         <f t="shared" ref="AY52:AY57" si="71">H52*AV52</f>
         <v>1.5568656588000002E-6</v>
       </c>
-    </row>
-    <row r="53" spans="1:51" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ52" s="352">
+        <f>AW52/DB!$B$23</f>
+        <v>1.5368852459016397E-10</v>
+      </c>
+      <c r="BA52" s="352">
+        <f>AX52/DB!$B$23</f>
+        <v>1.5368852459016397E-10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="83" t="s">
         <v>564</v>
       </c>
@@ -25509,8 +25866,16 @@
         <f t="shared" si="71"/>
         <v>1.4734616388045097E-6</v>
       </c>
-    </row>
-    <row r="54" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ53" s="352">
+        <f>AW53/DB!$B$23</f>
+        <v>1.4600409836065575E-10</v>
+      </c>
+      <c r="BA53" s="352">
+        <f>AX53/DB!$B$23</f>
+        <v>1.4600409836065575E-10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="83" t="s">
         <v>565</v>
       </c>
@@ -25678,8 +26043,16 @@
         <f t="shared" si="71"/>
         <v>5.6250946863420151E-6</v>
       </c>
-    </row>
-    <row r="55" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ54" s="352">
+        <f>AW54/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA54" s="352">
+        <f>AX54/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="83" t="s">
         <v>566</v>
       </c>
@@ -25848,8 +26221,16 @@
         <f t="shared" si="71"/>
         <v>3.0099673057999999E-7</v>
       </c>
-    </row>
-    <row r="56" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ55" s="352">
+        <f>AW55/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA55" s="352">
+        <f>AX55/DB!$B$23</f>
+        <v>3.5860655737704915E-10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="83" t="s">
         <v>567</v>
       </c>
@@ -26017,8 +26398,16 @@
         <f t="shared" si="71"/>
         <v>2.845776943625E-7</v>
       </c>
-    </row>
-    <row r="57" spans="1:51" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ56" s="352">
+        <f>AW56/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA56" s="352">
+        <f>AX56/DB!$B$23</f>
+        <v>3.4067622950819673E-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="83" t="s">
         <v>568</v>
       </c>
@@ -26186,8 +26575,16 @@
         <f t="shared" si="71"/>
         <v>1.3174361142687502E-6</v>
       </c>
-    </row>
-    <row r="58" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ57" s="352">
+        <f>AW57/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA57" s="352">
+        <f>AX57/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="94" t="s">
         <v>569</v>
       </c>
@@ -26215,7 +26612,7 @@
       <c r="AX58" s="98"/>
       <c r="AY58" s="98"/>
     </row>
-    <row r="59" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="94"/>
       <c r="B59" s="94"/>
       <c r="D59" s="185"/>
@@ -26237,7 +26634,7 @@
       <c r="AX59" s="98"/>
       <c r="AY59" s="98"/>
     </row>
-    <row r="60" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="94"/>
       <c r="B60" s="94"/>
       <c r="D60" s="185"/>
@@ -26259,8 +26656,8 @@
       <c r="AX60" s="98"/>
       <c r="AY60" s="98"/>
     </row>
-    <row r="61" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:51" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>570</v>
       </c>
@@ -26424,8 +26821,16 @@
         <f>H62*AV62</f>
         <v>1.0605499867199998E-5</v>
       </c>
-    </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ62" s="352">
+        <f>AW62/DB!$B$23</f>
+        <v>1.0040983606557377E-9</v>
+      </c>
+      <c r="BA62" s="352">
+        <f>AX62/DB!$B$23</f>
+        <v>2.0081967213114754E-9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>571</v>
       </c>
@@ -26596,8 +27001,16 @@
         <f t="shared" ref="AY63:AY69" si="82">H63*AV63</f>
         <v>6.1087679235071987E-6</v>
       </c>
-    </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ63" s="352">
+        <f>AW63/DB!$B$23</f>
+        <v>5.7836065573770488E-10</v>
+      </c>
+      <c r="BA63" s="352">
+        <f>AX63/DB!$B$23</f>
+        <v>1.1567213114754098E-9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>572</v>
       </c>
@@ -26768,8 +27181,16 @@
         <f t="shared" si="82"/>
         <v>7.7653974451199983E-7</v>
       </c>
-    </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ64" s="352">
+        <f>AW64/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA64" s="352">
+        <f>AX64/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>573</v>
       </c>
@@ -26939,8 +27360,16 @@
         <f t="shared" si="82"/>
         <v>6.1468914814719992E-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ65" s="352">
+        <f>AW65/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA65" s="352">
+        <f>AX65/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>574</v>
       </c>
@@ -27110,8 +27539,16 @@
         <f t="shared" si="82"/>
         <v>1.2499484200700001E-6</v>
       </c>
-    </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ66" s="352">
+        <f>AW66/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA66" s="352">
+        <f>AX66/DB!$B$23</f>
+        <v>1.7571721311475411E-9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>575</v>
       </c>
@@ -27281,8 +27718,16 @@
         <f t="shared" si="82"/>
         <v>1.6932258961659999E-7</v>
       </c>
-    </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ67" s="352">
+        <f>AW67/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA67" s="352">
+        <f>AX67/DB!$B$23</f>
+        <v>2.0835040983606557E-10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>576</v>
       </c>
@@ -27453,8 +27898,16 @@
         <f t="shared" si="82"/>
         <v>5.40326507028E-7</v>
       </c>
-    </row>
-    <row r="69" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ68" s="352">
+        <f>AW68/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA68" s="352">
+        <f>AX68/DB!$B$23</f>
+        <v>6.6270491803278686E-10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>577</v>
       </c>
@@ -27620,8 +28073,16 @@
         <f t="shared" si="82"/>
         <v>4.7043721515577505E-6</v>
       </c>
-    </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ69" s="352">
+        <f>AW69/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA69" s="352">
+        <f>AX69/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="31"/>
@@ -27680,8 +28141,8 @@
       <c r="AX70" s="34"/>
       <c r="AY70" s="34"/>
     </row>
-    <row r="71" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:51" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:53" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="83" t="s">
         <v>578</v>
       </c>
@@ -27842,8 +28303,16 @@
         <f t="shared" ref="AY72:AY77" si="108">H72*AV72</f>
         <v>8.7305489464000016E-5</v>
       </c>
-    </row>
-    <row r="73" spans="1:51" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ72" s="352">
+        <f>AW72/DB!$B$23</f>
+        <v>2.0491803278688529E-9</v>
+      </c>
+      <c r="BA72" s="352">
+        <f>AX72/DB!$B$23</f>
+        <v>4.0983606557377057E-9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:53" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="83" t="s">
         <v>579</v>
       </c>
@@ -28009,8 +28478,16 @@
         <f t="shared" si="108"/>
         <v>4.3535815632000013E-4</v>
       </c>
-    </row>
-    <row r="74" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ73" s="352">
+        <f>AW73/DB!$B$23</f>
+        <v>7.3770491803278703E-9</v>
+      </c>
+      <c r="BA73" s="352">
+        <f>AX73/DB!$B$23</f>
+        <v>7.3770491803278703E-9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="83" t="s">
         <v>580</v>
       </c>
@@ -28177,8 +28654,16 @@
         <f t="shared" si="108"/>
         <v>3.1680345513600006E-4</v>
       </c>
-    </row>
-    <row r="75" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ74" s="352">
+        <f>AW74/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA74" s="352">
+        <f>AX74/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="83" t="s">
         <v>581</v>
       </c>
@@ -28345,8 +28830,16 @@
         <f t="shared" si="108"/>
         <v>4.8720823419600004E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ75" s="352">
+        <f>AW75/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA75" s="352">
+        <f>AX75/DB!$B$23</f>
+        <v>4.0983606557377053E-8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="83" t="s">
         <v>582</v>
       </c>
@@ -28514,8 +29007,16 @@
         <f t="shared" si="108"/>
         <v>2.0364946572600006E-4</v>
       </c>
-    </row>
-    <row r="77" spans="1:51" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ76" s="352">
+        <f>AW76/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA76" s="352">
+        <f>AX76/DB!$B$23</f>
+        <v>9.2213114754098381E-9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:53" s="93" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="83" t="s">
         <v>583</v>
       </c>
@@ -28683,8 +29184,16 @@
         <f t="shared" si="108"/>
         <v>1.0529049749850003E-4</v>
       </c>
-    </row>
-    <row r="78" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ77" s="352">
+        <f>AW77/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA77" s="352">
+        <f>AX77/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="94" t="s">
         <v>584</v>
       </c>
@@ -28712,7 +29221,7 @@
       <c r="AX78" s="98"/>
       <c r="AY78" s="98"/>
     </row>
-    <row r="79" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="94"/>
       <c r="B79" s="94"/>
       <c r="D79" s="185"/>
@@ -28734,7 +29243,7 @@
       <c r="AX79" s="98"/>
       <c r="AY79" s="98"/>
     </row>
-    <row r="80" spans="1:51" s="93" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:53" s="93" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="94"/>
       <c r="B80" s="94"/>
       <c r="D80" s="185"/>
@@ -28756,8 +29265,8 @@
       <c r="AX80" s="98"/>
       <c r="AY80" s="98"/>
     </row>
-    <row r="81" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="82" spans="1:51" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="132" t="s">
         <v>585</v>
       </c>
@@ -28919,8 +29428,16 @@
         <f>H82*AV82</f>
         <v>1.2372707192000003E-5</v>
       </c>
-    </row>
-    <row r="83" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ82" s="352">
+        <f>AW82/DB!$B$23</f>
+        <v>1.0245901639344264E-9</v>
+      </c>
+      <c r="BA82" s="352">
+        <f>AX82/DB!$B$23</f>
+        <v>2.0491803278688529E-9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="132" t="s">
         <v>586</v>
       </c>
@@ -29089,8 +29606,16 @@
         <f>H83*AV83</f>
         <v>1.1442680529160003E-5</v>
       </c>
-    </row>
-    <row r="84" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ83" s="352">
+        <f>AW83/DB!$B$23</f>
+        <v>9.7336065573770506E-10</v>
+      </c>
+      <c r="BA83" s="352">
+        <f>AX83/DB!$B$23</f>
+        <v>1.9467213114754101E-9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="132" t="s">
         <v>587</v>
       </c>
@@ -29258,8 +29783,16 @@
         <f>H84*AV84</f>
         <v>4.0238941351500002E-5</v>
       </c>
-    </row>
-    <row r="85" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ84" s="352">
+        <f>AW84/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA84" s="352">
+        <f>AX84/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="132" t="s">
         <v>588</v>
       </c>
@@ -29288,7 +29821,7 @@
       <c r="AX85" s="146"/>
       <c r="AY85" s="146"/>
     </row>
-    <row r="86" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="132" t="s">
         <v>589</v>
       </c>
@@ -29317,7 +29850,7 @@
       <c r="AX86" s="146"/>
       <c r="AY86" s="146"/>
     </row>
-    <row r="87" spans="1:51" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="132" t="s">
         <v>590</v>
       </c>
@@ -29346,7 +29879,7 @@
       <c r="AX87" s="146"/>
       <c r="AY87" s="146"/>
     </row>
-    <row r="88" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="142" t="s">
         <v>591</v>
       </c>
@@ -29374,7 +29907,7 @@
       <c r="AX88" s="146"/>
       <c r="AY88" s="146"/>
     </row>
-    <row r="89" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="142"/>
       <c r="B89" s="142"/>
       <c r="D89" s="188"/>
@@ -29396,7 +29929,7 @@
       <c r="AX89" s="146"/>
       <c r="AY89" s="146"/>
     </row>
-    <row r="90" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="142"/>
       <c r="B90" s="142"/>
       <c r="D90" s="188"/>
@@ -29418,8 +29951,8 @@
       <c r="AX90" s="146"/>
       <c r="AY90" s="146"/>
     </row>
-    <row r="91" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="92" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>592</v>
       </c>
@@ -29584,8 +30117,16 @@
         <f t="shared" ref="AY92:AY97" si="120">H92*AV92</f>
         <v>3.6229086326880006E-5</v>
       </c>
-    </row>
-    <row r="93" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ92" s="352">
+        <f>AW92/DB!$B$23</f>
+        <v>3.2889344262295083E-9</v>
+      </c>
+      <c r="BA92" s="352">
+        <f>AX92/DB!$B$23</f>
+        <v>6.5778688524590167E-9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>593</v>
       </c>
@@ -29755,8 +30296,16 @@
         <f t="shared" si="120"/>
         <v>7.1834907672568898E-6</v>
       </c>
-    </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ93" s="352">
+        <f>AW93/DB!$B$23</f>
+        <v>6.5778688524590171E-10</v>
+      </c>
+      <c r="BA93" s="352">
+        <f>AX93/DB!$B$23</f>
+        <v>1.3155737704918034E-9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>594</v>
       </c>
@@ -29926,8 +30475,16 @@
         <f t="shared" si="120"/>
         <v>2.5613683621959947E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ94" s="352">
+        <f>AW94/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA94" s="352">
+        <f>AX94/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>595</v>
       </c>
@@ -30097,8 +30654,16 @@
         <f t="shared" si="120"/>
         <v>2.451353349516E-5</v>
       </c>
-    </row>
-    <row r="96" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ95" s="352">
+        <f>AW95/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA95" s="352">
+        <f>AX95/DB!$B$23</f>
+        <v>3.2889344262295083E-8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>596</v>
       </c>
@@ -30268,8 +30833,16 @@
         <f t="shared" si="120"/>
         <v>2.8542481869000003E-6</v>
       </c>
-    </row>
-    <row r="97" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ96" s="352">
+        <f>AW96/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA96" s="352">
+        <f>AX96/DB!$B$23</f>
+        <v>3.2889344262295083E-9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A97" s="171" t="s">
         <v>597</v>
       </c>
@@ -30439,8 +31012,16 @@
         <f t="shared" si="120"/>
         <v>1.2921810108150001E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:51" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ97" s="352">
+        <f>AW97/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA97" s="352">
+        <f>AX97/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:53" s="181" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>598</v>
       </c>
@@ -30499,7 +31080,7 @@
       <c r="AX98" s="8"/>
       <c r="AY98" s="8"/>
     </row>
-    <row r="99" spans="1:51" s="181" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:53" s="181" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -30552,7 +31133,7 @@
       <c r="AX99" s="8"/>
       <c r="AY99" s="8"/>
     </row>
-    <row r="100" spans="1:51" s="181" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:53" s="181" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -30605,8 +31186,8 @@
       <c r="AX100" s="8"/>
       <c r="AY100" s="8"/>
     </row>
-    <row r="101" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="102" spans="1:51" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="102" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="132" t="s">
         <v>599</v>
       </c>
@@ -30768,8 +31349,16 @@
         <f>H102*AV102</f>
         <v>8.6720194399999989E-7</v>
       </c>
-    </row>
-    <row r="103" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ102" s="352">
+        <f>AW102/DB!$B$23</f>
+        <v>5.1229508196721309E-11</v>
+      </c>
+      <c r="BA102" s="352">
+        <f>AX102/DB!$B$23</f>
+        <v>1.0245901639344262E-10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="132" t="s">
         <v>600</v>
       </c>
@@ -30938,8 +31527,16 @@
         <f t="shared" ref="AY103" si="131">H103*AV103</f>
         <v>3.032060196248E-6</v>
       </c>
-    </row>
-    <row r="104" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ103" s="352">
+        <f>AW103/DB!$B$23</f>
+        <v>1.9467213114754096E-10</v>
+      </c>
+      <c r="BA103" s="352">
+        <f>AX103/DB!$B$23</f>
+        <v>3.8934426229508191E-10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="132" t="s">
         <v>601</v>
       </c>
@@ -31107,8 +31704,16 @@
         <f>H104*AV104</f>
         <v>2.0982058719999998E-6</v>
       </c>
-    </row>
-    <row r="105" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ104" s="352">
+        <f>AW104/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA104" s="352">
+        <f>AX104/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="132" t="s">
         <v>602</v>
       </c>
@@ -31276,8 +31881,16 @@
         <f t="shared" ref="AY105:AY109" si="133">H105*AV105</f>
         <v>4.4693493280000006E-7</v>
       </c>
-    </row>
-    <row r="106" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ105" s="352">
+        <f>AW105/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA105" s="352">
+        <f>AX105/DB!$B$23</f>
+        <v>4.0983606557377057E-10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="132" t="s">
         <v>603</v>
       </c>
@@ -31445,8 +32058,16 @@
         <f t="shared" si="133"/>
         <v>2.5647563968000004E-6</v>
       </c>
-    </row>
-    <row r="107" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ106" s="352">
+        <f>AW106/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA106" s="352">
+        <f>AX106/DB!$B$23</f>
+        <v>1.6393442622950823E-9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="132" t="s">
         <v>604</v>
       </c>
@@ -31615,8 +32236,16 @@
         <f t="shared" si="133"/>
         <v>3.9128384992000005E-7</v>
       </c>
-    </row>
-    <row r="108" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ107" s="352">
+        <f>AW107/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA107" s="352">
+        <f>AX107/DB!$B$23</f>
+        <v>4.0983606557377057E-10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="132" t="s">
         <v>605</v>
       </c>
@@ -31785,8 +32414,16 @@
         <f t="shared" si="133"/>
         <v>1.4868786296960002E-6</v>
       </c>
-    </row>
-    <row r="109" spans="1:51" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ108" s="352">
+        <f>AW108/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA108" s="352">
+        <f>AX108/DB!$B$23</f>
+        <v>1.5573770491803281E-9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="132" t="s">
         <v>606</v>
       </c>
@@ -31950,8 +32587,16 @@
         <f t="shared" si="133"/>
         <v>1.3495270569600003E-6</v>
       </c>
-    </row>
-    <row r="110" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ109" s="352">
+        <f>AW109/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA109" s="352">
+        <f>AX109/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="195" t="s">
         <v>607</v>
       </c>
@@ -32092,9 +32737,17 @@
         <f>H110*AV110</f>
         <v>4.0050679860000006E-4</v>
       </c>
-    </row>
-    <row r="111" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="112" spans="1:51" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AZ110" s="352">
+        <f>AW110/DB!$B$23</f>
+        <v>2.5614754098360658E-8</v>
+      </c>
+      <c r="BA110" s="352">
+        <f>AX110/DB!$B$23</f>
+        <v>5.1229508196721316E-8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="112" spans="1:53" s="141" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="132" t="s">
         <v>608</v>
       </c>
@@ -32256,8 +32909,16 @@
         <f>H112*AV112</f>
         <v>8.6720194399999989E-7</v>
       </c>
-    </row>
-    <row r="113" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ112" s="352">
+        <f>AW112/DB!$B$23</f>
+        <v>5.1229508196721309E-11</v>
+      </c>
+      <c r="BA112" s="352">
+        <f>AX112/DB!$B$23</f>
+        <v>1.0245901639344262E-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="132" t="s">
         <v>609</v>
       </c>
@@ -32426,8 +33087,16 @@
         <f t="shared" ref="AY113" si="144">H113*AV113</f>
         <v>3.032060196248E-6</v>
       </c>
-    </row>
-    <row r="114" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ113" s="352">
+        <f>AW113/DB!$B$23</f>
+        <v>1.9467213114754096E-10</v>
+      </c>
+      <c r="BA113" s="352">
+        <f>AX113/DB!$B$23</f>
+        <v>3.8934426229508191E-10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="132" t="s">
         <v>610</v>
       </c>
@@ -32595,8 +33264,16 @@
         <f>H114*AV114</f>
         <v>2.0982058719999998E-6</v>
       </c>
-    </row>
-    <row r="115" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ114" s="352">
+        <f>AW114/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA114" s="352">
+        <f>AX114/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="132" t="s">
         <v>611</v>
       </c>
@@ -32764,8 +33441,16 @@
         <f t="shared" ref="AY115:AY119" si="146">H115*AV115</f>
         <v>4.4693493280000006E-7</v>
       </c>
-    </row>
-    <row r="116" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ115" s="352">
+        <f>AW115/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA115" s="352">
+        <f>AX115/DB!$B$23</f>
+        <v>4.0983606557377057E-10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="132" t="s">
         <v>612</v>
       </c>
@@ -32933,8 +33618,16 @@
         <f t="shared" si="146"/>
         <v>2.5647563968000004E-6</v>
       </c>
-    </row>
-    <row r="117" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ116" s="352">
+        <f>AW116/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA116" s="352">
+        <f>AX116/DB!$B$23</f>
+        <v>1.6393442622950823E-9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="132" t="s">
         <v>613</v>
       </c>
@@ -33103,8 +33796,16 @@
         <f t="shared" si="146"/>
         <v>3.9128384992000005E-7</v>
       </c>
-    </row>
-    <row r="118" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ117" s="352">
+        <f>AW117/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA117" s="352">
+        <f>AX117/DB!$B$23</f>
+        <v>4.0983606557377057E-10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="132" t="s">
         <v>614</v>
       </c>
@@ -33273,8 +33974,16 @@
         <f t="shared" si="146"/>
         <v>1.4868786296960002E-6</v>
       </c>
-    </row>
-    <row r="119" spans="1:51" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ118" s="352">
+        <f>AW118/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA118" s="352">
+        <f>AX118/DB!$B$23</f>
+        <v>1.5573770491803281E-9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:53" s="141" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="132" t="s">
         <v>615</v>
       </c>
@@ -33438,8 +34147,16 @@
         <f t="shared" si="146"/>
         <v>1.3495270569600003E-6</v>
       </c>
-    </row>
-    <row r="120" spans="1:51" s="141" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AZ119" s="352">
+        <f>AW119/DB!$B$23</f>
+        <v>0</v>
+      </c>
+      <c r="BA119" s="352">
+        <f>AX119/DB!$B$23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="195" t="s">
         <v>616</v>
       </c>
@@ -33580,6 +34297,14 @@
         <f>H120*AV120</f>
         <v>4.0050679860000006E-4</v>
       </c>
+      <c r="AZ120" s="352">
+        <f>AW120/DB!$B$23</f>
+        <v>2.5614754098360658E-8</v>
+      </c>
+      <c r="BA120" s="352">
+        <f>AX120/DB!$B$23</f>
+        <v>5.1229508196721316E-8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33589,8 +34314,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="38914" r:id="rId4" name="Показать">
+        <control shapeId="38913" r:id="rId4" name="Скрыть">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>60960</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>68580</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>975360</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>365760</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="38913" r:id="rId4" name="Скрыть"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="38914" r:id="rId6" name="Показать">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -33609,32 +34359,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="38914" r:id="rId4" name="Показать"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="38913" r:id="rId6" name="Скрыть">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>68580</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>975360</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>365760</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="38913" r:id="rId6" name="Скрыть"/>
+        <control shapeId="38914" r:id="rId6" name="Показать"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/risk_analysis_prototype.xlsx
+++ b/risk_analysis_prototype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\risk_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26510632-0A7D-4BFB-BC22-B9B1341C17BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF94D7-3D37-423F-98D0-21AEC4F68933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1584" windowWidth="41280" windowHeight="14232" tabRatio="904" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1584" windowWidth="41280" windowHeight="14232" tabRatio="904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="28" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6287" uniqueCount="621">
   <si>
     <t>Оборудование</t>
   </si>
@@ -2142,6 +2142,30 @@
   <si>
     <t>Стоимость в-а, млн.руб/т</t>
   </si>
+  <si>
+    <t>ВХ-00-015657</t>
+  </si>
+  <si>
+    <t>09.10.2015 г.</t>
+  </si>
+  <si>
+    <t>ООО «Башнефть-Добыча»</t>
+  </si>
+  <si>
+    <t>Нонява Сергей Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450052, Республика Башкортостан, г. Уфа, ул. Карла Маркса, д. 30/1 </t>
+  </si>
+  <si>
+    <t>8 (347) 262-26-07</t>
+  </si>
+  <si>
+    <t>8 (347) 262-24-56</t>
+  </si>
+  <si>
+    <t>info_bn@bn.rosneft.ru</t>
+  </si>
 </sst>
 </file>
 
@@ -3163,7 +3187,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="358">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3697,6 +3721,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4537,8 +4567,8 @@
   </sheetPr>
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4560,8 +4590,8 @@
       <c r="A2" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>454</v>
+      <c r="B2" s="358" t="s">
+        <v>615</v>
       </c>
       <c r="C2" t="s">
         <v>217</v>
@@ -4595,7 +4625,7 @@
       <c r="A3" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="358" t="s">
         <v>455</v>
       </c>
       <c r="C3" t="s">
@@ -4630,8 +4660,8 @@
       <c r="A4" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>456</v>
+      <c r="B4" s="358" t="s">
+        <v>386</v>
       </c>
       <c r="C4" t="s">
         <v>220</v>
@@ -4665,8 +4695,8 @@
       <c r="A5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>457</v>
+      <c r="B5" s="358" t="s">
+        <v>616</v>
       </c>
       <c r="C5" t="s">
         <v>219</v>
@@ -4700,8 +4730,8 @@
       <c r="A6" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>458</v>
+      <c r="B6" s="358" t="s">
+        <v>617</v>
       </c>
       <c r="C6" t="s">
         <v>224</v>
@@ -4735,8 +4765,8 @@
       <c r="A7" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>459</v>
+      <c r="B7" s="358" t="s">
+        <v>618</v>
       </c>
       <c r="C7" t="s">
         <v>225</v>
@@ -4770,8 +4800,8 @@
       <c r="A8" s="141" t="s">
         <v>201</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>459</v>
+      <c r="B8" s="358" t="s">
+        <v>619</v>
       </c>
       <c r="C8" t="s">
         <v>221</v>
@@ -4805,8 +4835,8 @@
       <c r="A9" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="277" t="s">
-        <v>460</v>
+      <c r="B9" s="359" t="s">
+        <v>620</v>
       </c>
       <c r="C9" t="s">
         <v>202</v>
@@ -4840,8 +4870,8 @@
       <c r="A10" s="141" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>461</v>
+      <c r="B10" s="358" t="s">
+        <v>613</v>
       </c>
       <c r="C10" t="s">
         <v>222</v>
@@ -4875,8 +4905,8 @@
       <c r="A11" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>462</v>
+      <c r="B11" s="358" t="s">
+        <v>614</v>
       </c>
       <c r="C11" t="s">
         <v>223</v>
@@ -17846,9 +17876,9 @@
   <sheetPr codeName="Лист30"/>
   <dimension ref="A1:BA120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ14" sqref="AJ14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21020,7 +21050,7 @@
       </c>
     </row>
     <row r="20" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="132" t="s">
         <v>535</v>
       </c>
       <c r="B20" s="195" t="str">
@@ -24169,7 +24199,7 @@
       </c>
     </row>
     <row r="40" spans="1:53" s="141" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="132" t="s">
         <v>553</v>
       </c>
       <c r="B40" s="195" t="str">
@@ -34629,13 +34659,13 @@
         <v>1.8999999999999998E-7</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D12" s="37">
         <v>1.8999999999999998E-7</v>
       </c>
       <c r="E12" s="3">
-        <v>377.58516413980004</v>
+        <v>28.8351641398</v>
       </c>
       <c r="AE12" s="37"/>
       <c r="AF12" s="3"/>
@@ -34917,13 +34947,13 @@
         <v>3.7999999999999996E-7</v>
       </c>
       <c r="B30">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="D30" s="37">
         <v>3.7999999999999996E-7</v>
       </c>
       <c r="E30" s="3">
-        <v>941.71557660844007</v>
+        <v>22.965576608440003</v>
       </c>
       <c r="AE30" s="37"/>
       <c r="AF30" s="3"/>
